--- a/Code/URE_NNP_positions_NationalAccounts.xlsx
+++ b/Code/URE_NNP_positions_NationalAccounts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5604ff08deb8de49/Documents/Research/Denmark/IncomeUncertaintyGit/Code/Rcode/Tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edmun\OneDrive\Documents\Research\Denmark\IncomeUncertaintyGit\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1F79CEA3-DF36-4705-9498-8CE1AEEDA8F3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C2AFC6DA-D60E-4EDA-8C2A-E463C6F14DDB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="528" windowWidth="19818" windowHeight="7110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -893,7 +893,7 @@
   <dimension ref="A1:AF789"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N2" workbookViewId="0">
-      <selection activeCell="AD18" sqref="AD18"/>
+      <selection activeCell="AC7" sqref="AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1224,18 +1224,18 @@
         <v>122</v>
       </c>
       <c r="W6">
-        <v>2.17</v>
+        <v>4.03</v>
       </c>
       <c r="X6">
         <f>U6/W6</f>
-        <v>706.27211966286757</v>
+        <v>380.3003721261594</v>
       </c>
       <c r="Y6">
         <v>0.1</v>
       </c>
       <c r="Z6" s="12">
         <f>X6*Y6/TotalC</f>
-        <v>7.4074829505478376E-2</v>
+        <v>3.988644665679604E-2</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="AC7" s="13">
         <f>Z9+Z13</f>
-        <v>-0.24136243661343293</v>
+        <v>-0.39675109072059639</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -1425,11 +1425,11 @@
       </c>
       <c r="X9" s="8">
         <f>SUM(X4:X8)</f>
-        <v>708.49226722014134</v>
+        <v>382.52051968343329</v>
       </c>
       <c r="Z9" s="13">
         <f>SUM(Z4:Z8)</f>
-        <v>8.2095932914994299E-2</v>
+        <v>4.7907550066311963E-2</v>
       </c>
       <c r="AB9" t="s">
         <v>136</v>
@@ -1486,14 +1486,14 @@
       </c>
       <c r="X10" s="7">
         <f>AA20-AB20-AC20</f>
-        <v>-626.32049807599992</v>
+        <v>-337.838740664</v>
       </c>
       <c r="Y10" t="s">
         <v>126</v>
       </c>
       <c r="Z10" s="12">
         <f>Z27*Z30/TotalC</f>
-        <v>-0.28412783347694898</v>
+        <v>-0.42344423989152452</v>
       </c>
       <c r="AB10" t="s">
         <v>137</v>
@@ -1541,15 +1541,16 @@
       <c r="W11" t="s">
         <v>112</v>
       </c>
-      <c r="X11">
-        <v>-10</v>
+      <c r="X11" s="7">
+        <f>AB20</f>
+        <v>-5.6002394363922612</v>
       </c>
       <c r="Y11">
         <v>0.2</v>
       </c>
       <c r="Z11" s="12">
         <f>X11*Y11/TotalC</f>
-        <v>-2.0976285894121743E-3</v>
+        <v>-1.174722234932993E-3</v>
       </c>
       <c r="AB11" t="s">
         <v>138</v>
@@ -1616,19 +1617,20 @@
       <c r="W12" t="s">
         <v>113</v>
       </c>
-      <c r="X12">
-        <v>-71</v>
+      <c r="X12" s="7">
+        <f>AC20</f>
+        <v>-38.213969358735085</v>
       </c>
       <c r="Y12">
         <v>0.5</v>
       </c>
       <c r="Z12" s="12">
         <f>X12*Y12/TotalC</f>
-        <v>-3.7232907462066096E-2</v>
+        <v>-2.003967866045088E-2</v>
       </c>
       <c r="AD12">
         <f>AC7/AC9</f>
-        <v>4.0227072768905492</v>
+        <v>6.6125181786766065</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -1669,7 +1671,7 @@
       </c>
       <c r="Z13" s="13">
         <f>SUM(Z10:Z12)</f>
-        <v>-0.32345836952842721</v>
+        <v>-0.44465864078690837</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -1710,7 +1712,7 @@
       </c>
       <c r="Y14">
         <f>Z10*TotalC/X10</f>
-        <v>0.43253231180149038</v>
+        <v>1.1950557948008886</v>
       </c>
       <c r="Z14" s="12"/>
     </row>
@@ -1790,6 +1792,15 @@
       <c r="W16" t="s">
         <v>110</v>
       </c>
+      <c r="AB16">
+        <v>-9514</v>
+      </c>
+      <c r="AC16">
+        <v>-132681</v>
+      </c>
+      <c r="AD16">
+        <v>-489979.33758025552</v>
+      </c>
     </row>
     <row r="17" spans="4:30" x14ac:dyDescent="0.55000000000000004">
       <c r="E17" s="3" t="s">
@@ -1913,18 +1924,16 @@
       <c r="Z18" t="s">
         <v>115</v>
       </c>
-      <c r="AA18">
-        <v>-243690</v>
-      </c>
       <c r="AB18">
-        <v>-9514</v>
+        <f>AB16*AD18/AD16</f>
+        <v>-5131.8738386353662</v>
       </c>
       <c r="AC18">
-        <v>-132681</v>
+        <f>AC16*AD18/AD16</f>
+        <v>-71568.441537101011</v>
       </c>
       <c r="AD18">
-        <f>AD20*1000000000/AD19</f>
-        <v>-489979.33758025552</v>
+        <v>-264296</v>
       </c>
     </row>
     <row r="19" spans="4:30" x14ac:dyDescent="0.55000000000000004">
@@ -2054,20 +2063,20 @@
         <v>117</v>
       </c>
       <c r="AA20" s="10">
-        <f>AA18*AA19/1000000000</f>
-        <v>-707.54782275000002</v>
+        <f>SUM(AB20:AD20)</f>
+        <v>-381.65294945912734</v>
       </c>
       <c r="AB20" s="10">
         <f>AB18*AB19/1000000000</f>
-        <v>-10.382304724000001</v>
+        <v>-5.6002394363922612</v>
       </c>
       <c r="AC20" s="10">
         <f>AC18*AC19/1000000000</f>
-        <v>-70.845019949999994</v>
-      </c>
-      <c r="AD20" s="8">
-        <f>AA20-AB20-AC20</f>
-        <v>-626.32049807599992</v>
+        <v>-38.213969358735085</v>
+      </c>
+      <c r="AD20" s="10">
+        <f>AD18*AD19/1000000000</f>
+        <v>-337.838740664</v>
       </c>
     </row>
     <row r="21" spans="4:30" x14ac:dyDescent="0.55000000000000004">
@@ -2367,15 +2376,15 @@
         <v>131</v>
       </c>
       <c r="Z27" s="11">
-        <v>-0.54076639999999998</v>
+        <v>-0.80592039999999998</v>
       </c>
       <c r="AB27">
         <f>Z27*Z30</f>
-        <v>-270.90385296147315</v>
+        <v>-403.73614473874784</v>
       </c>
       <c r="AC27">
         <f>AB27*AB26/TotalC</f>
-        <v>-0.3693661835200337</v>
+        <v>-0.55047751185898197</v>
       </c>
     </row>
     <row r="28" spans="4:30" x14ac:dyDescent="0.55000000000000004">
@@ -2602,8 +2611,11 @@
         <f t="shared" si="0"/>
         <v>4845.5089331573936</v>
       </c>
-    </row>
-    <row r="33" spans="5:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="AB32" s="11">
+        <v>264296</v>
+      </c>
+    </row>
+    <row r="33" spans="5:28" x14ac:dyDescent="0.55000000000000004">
       <c r="E33" s="3" t="s">
         <v>14</v>
       </c>
@@ -2639,8 +2651,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="5:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="AB33">
+        <f>AB32*(W19-X19-Y19)/1000000000</f>
+        <v>338.64775071999998</v>
+      </c>
+    </row>
+    <row r="34" spans="5:28" x14ac:dyDescent="0.55000000000000004">
       <c r="E34" s="3" t="s">
         <v>15</v>
       </c>
@@ -2677,7 +2693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="5:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="5:28" x14ac:dyDescent="0.55000000000000004">
       <c r="E35" s="3" t="s">
         <v>16</v>
       </c>
@@ -2714,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="5:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="5:28" x14ac:dyDescent="0.55000000000000004">
       <c r="E36" s="3" t="s">
         <v>17</v>
       </c>
@@ -2751,7 +2767,7 @@
         <v>283.25244831301319</v>
       </c>
     </row>
-    <row r="37" spans="5:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="5:28" x14ac:dyDescent="0.55000000000000004">
       <c r="E37" s="3" t="s">
         <v>18</v>
       </c>
@@ -2788,7 +2804,7 @@
         <v>13.386830853674757</v>
       </c>
     </row>
-    <row r="38" spans="5:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="5:28" x14ac:dyDescent="0.55000000000000004">
       <c r="E38" s="3" t="s">
         <v>19</v>
       </c>
@@ -2825,7 +2841,7 @@
         <v>195.40766107375495</v>
       </c>
     </row>
-    <row r="39" spans="5:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="5:28" x14ac:dyDescent="0.55000000000000004">
       <c r="E39" s="3" t="s">
         <v>20</v>
       </c>
@@ -2862,7 +2878,7 @@
         <v>74.749778223807866</v>
       </c>
     </row>
-    <row r="40" spans="5:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="5:28" x14ac:dyDescent="0.55000000000000004">
       <c r="E40" s="3" t="s">
         <v>21</v>
       </c>
@@ -2899,7 +2915,7 @@
         <v>129.21356840539235</v>
       </c>
     </row>
-    <row r="41" spans="5:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="5:28" x14ac:dyDescent="0.55000000000000004">
       <c r="E41" s="3" t="s">
         <v>22</v>
       </c>
@@ -2936,7 +2952,7 @@
         <v>7.3697718741785962</v>
       </c>
     </row>
-    <row r="42" spans="5:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="5:28" x14ac:dyDescent="0.55000000000000004">
       <c r="E42" s="3" t="s">
         <v>23</v>
       </c>
@@ -2973,7 +2989,7 @@
         <v>121.84379653121375</v>
       </c>
     </row>
-    <row r="43" spans="5:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="5:28" x14ac:dyDescent="0.55000000000000004">
       <c r="E43" s="3" t="s">
         <v>24</v>
       </c>
@@ -3010,7 +3026,7 @@
         <v>815.17884617900677</v>
       </c>
     </row>
-    <row r="44" spans="5:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="5:28" x14ac:dyDescent="0.55000000000000004">
       <c r="E44" s="3" t="s">
         <v>25</v>
       </c>
@@ -3047,7 +3063,7 @@
         <v>689.85757009531278</v>
       </c>
     </row>
-    <row r="45" spans="5:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="5:28" x14ac:dyDescent="0.55000000000000004">
       <c r="E45" s="3" t="s">
         <v>26</v>
       </c>
@@ -3084,7 +3100,7 @@
         <v>125.47024077906121</v>
       </c>
     </row>
-    <row r="46" spans="5:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="5:28" x14ac:dyDescent="0.55000000000000004">
       <c r="E46" s="3" t="s">
         <v>27</v>
       </c>
@@ -3121,7 +3137,7 @@
         <v>2599.4667089249865</v>
       </c>
     </row>
-    <row r="47" spans="5:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="5:28" x14ac:dyDescent="0.55000000000000004">
       <c r="E47" s="3" t="s">
         <v>28</v>
       </c>
@@ -3158,7 +3174,7 @@
         <v>90.15783609834854</v>
       </c>
     </row>
-    <row r="48" spans="5:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="5:28" x14ac:dyDescent="0.55000000000000004">
       <c r="E48" s="3" t="s">
         <v>29</v>
       </c>

--- a/Code/URE_NNP_positions_NationalAccounts.xlsx
+++ b/Code/URE_NNP_positions_NationalAccounts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edmun\OneDrive\Documents\Research\Denmark\IncomeUncertaintyGit\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5604ff08deb8de49/Documents/Research/Denmark/IncomeUncertaintyGit/Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C2AFC6DA-D60E-4EDA-8C2A-E463C6F14DDB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{72CB46DA-E68B-4CBA-9893-D80416DF6CCD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="528" windowWidth="19818" windowHeight="7110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,14 @@
     <sheet name="URELossAnalysis" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="TotalC">'Infl corrected'!$Z$24</definedName>
+    <definedName name="TotalC">'Infl corrected'!$S$27</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="168">
   <si>
     <t>Quarterly financial accounts by counterpart sector, data type, account entry, sector, financial instrument and time</t>
   </si>
@@ -305,9 +305,6 @@
     <t>URE</t>
   </si>
   <si>
-    <t>Debt, &lt;1yr interest fixation</t>
-  </si>
-  <si>
     <t>Statsfinanser og -gæld, beholdninger efter instrument og tid</t>
   </si>
   <si>
@@ -401,13 +398,7 @@
     <t>Financial sector (excl. pension funds)</t>
   </si>
   <si>
-    <t>Our sample</t>
-  </si>
-  <si>
     <t>MPC assumption</t>
-  </si>
-  <si>
-    <t>See distribution</t>
   </si>
   <si>
     <t>Total Consumption:</t>
@@ -422,34 +413,7 @@
     <t>TotalC</t>
   </si>
   <si>
-    <t>E_R from micro</t>
-  </si>
-  <si>
-    <t>% households in sample</t>
-  </si>
-  <si>
-    <t>MeanC used in micro</t>
-  </si>
-  <si>
-    <t>TotalC in sample</t>
-  </si>
-  <si>
-    <t>Headline</t>
-  </si>
-  <si>
-    <t>Substitution chanel</t>
-  </si>
-  <si>
-    <t>sigma</t>
-  </si>
-  <si>
     <t>S</t>
-  </si>
-  <si>
-    <t>rho</t>
-  </si>
-  <si>
-    <t>Mean URE in sample</t>
   </si>
   <si>
     <t>Sample</t>
@@ -492,6 +456,81 @@
   </si>
   <si>
     <t>% change</t>
+  </si>
+  <si>
+    <t>Our Sample</t>
+  </si>
+  <si>
+    <t>Head &lt;30</t>
+  </si>
+  <si>
+    <t>Head &gt;55</t>
+  </si>
+  <si>
+    <t>See Distribution</t>
+  </si>
+  <si>
+    <t>E_R contribution</t>
+  </si>
+  <si>
+    <t>E_P contribution</t>
+  </si>
+  <si>
+    <t>From R</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>URE*MPX</t>
+  </si>
+  <si>
+    <t>NNP*MPX</t>
+  </si>
+  <si>
+    <t>Income*MPX</t>
+  </si>
+  <si>
+    <t>Cons*MPX</t>
+  </si>
+  <si>
+    <t>Contribution</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>E_Y</t>
+  </si>
+  <si>
+    <t>E_P</t>
+  </si>
+  <si>
+    <t>E_R</t>
+  </si>
+  <si>
+    <t>E_Y contribution</t>
+  </si>
+  <si>
+    <t>M contribution</t>
+  </si>
+  <si>
+    <t>MPX</t>
+  </si>
+  <si>
+    <t>Y/C ratio</t>
+  </si>
+  <si>
+    <t>Mean C in sample</t>
+  </si>
+  <si>
+    <t>For Export to CSV file</t>
+  </si>
+  <si>
+    <t>MPC</t>
+  </si>
+  <si>
+    <t>All five sufficient stats</t>
   </si>
 </sst>
 </file>
@@ -890,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF789"/>
+  <dimension ref="A1:AJ789"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N2" workbookViewId="0">
-      <selection activeCell="AC7" sqref="AC7"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -903,12 +942,13 @@
     <col min="3" max="3" width="16.68359375" customWidth="1"/>
     <col min="4" max="5" width="40.68359375" customWidth="1"/>
     <col min="6" max="12" width="9.41796875" customWidth="1"/>
-    <col min="15" max="15" width="19.578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.83984375" customWidth="1"/>
-    <col min="28" max="28" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.68359375" customWidth="1"/>
+    <col min="23" max="23" width="9.47265625" customWidth="1"/>
+    <col min="25" max="25" width="18.83984375" customWidth="1"/>
+    <col min="27" max="27" width="11.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="16.8" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:36" ht="16.8" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -936,11 +976,14 @@
       <c r="M1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Z1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -966,7 +1009,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
@@ -989,37 +1032,64 @@
         <v>8</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P3" t="s">
         <v>57</v>
       </c>
       <c r="Q3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S3" t="s">
         <v>60</v>
       </c>
+      <c r="T3" t="s">
+        <v>65</v>
+      </c>
       <c r="U3" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="V3" t="s">
         <v>119</v>
       </c>
       <c r="W3" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="X3" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG3" t="s">
         <v>91</v>
       </c>
-      <c r="Y3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="AH3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1068,39 +1138,57 @@
         <v>27605.843884959108</v>
       </c>
       <c r="O4" t="s">
-        <v>56</v>
-      </c>
-      <c r="P4" s="7">
-        <f>M680+M684+M687+M700</f>
-        <v>1298.2574611822226</v>
-      </c>
-      <c r="R4" s="7">
-        <f>M288+M292+M295+M308</f>
-        <v>699.87507508918975</v>
-      </c>
-      <c r="U4">
-        <f>R4-P4</f>
-        <v>-598.38238609303289</v>
-      </c>
-      <c r="V4" t="s">
-        <v>121</v>
-      </c>
-      <c r="W4">
-        <v>5</v>
-      </c>
-      <c r="X4">
-        <f>U4/W4</f>
-        <v>-119.67647721860658</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
+        <v>143</v>
+      </c>
+      <c r="T4" s="7">
+        <f>S23</f>
+        <v>-1395.2152700619999</v>
+      </c>
+      <c r="W4" s="7">
+        <f>V23-W23-X23</f>
+        <v>-337.838740664</v>
+      </c>
+      <c r="X4" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y4" s="12">
+        <f>X27</f>
+        <v>-0.74264610665652941</v>
       </c>
       <c r="Z4" s="12">
-        <f>X4*Y4/TotalC</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+        <f>X26</f>
+        <v>-0.35480764229207523</v>
+      </c>
+      <c r="AA4" s="12">
+        <f>X28</f>
+        <v>0.29499037304956155</v>
+      </c>
+      <c r="AB4" s="12">
+        <f>X30</f>
+        <v>0.25534582526110955</v>
+      </c>
+      <c r="AF4" s="7">
+        <f>T4</f>
+        <v>-1395.2152700619999</v>
+      </c>
+      <c r="AG4" s="7">
+        <f>W4</f>
+        <v>-337.838740664</v>
+      </c>
+      <c r="AH4" s="12">
+        <f>Y4</f>
+        <v>-0.74264610665652941</v>
+      </c>
+      <c r="AI4" s="12">
+        <f>Z4</f>
+        <v>-0.35480764229207523</v>
+      </c>
+      <c r="AJ4" s="12">
+        <f>AA25</f>
+        <v>0.4638149711604459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
@@ -1137,39 +1225,61 @@
         <v>25.693490911670558</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
-      </c>
-      <c r="P5" s="7">
-        <f>M428+M432+M435+M448</f>
-        <v>2479.4677438224444</v>
-      </c>
-      <c r="R5" s="7">
-        <f>M36+M40+M43+M56</f>
-        <v>2145.7210378162099</v>
-      </c>
-      <c r="U5">
-        <f t="shared" ref="U5:U7" si="1">R5-P5</f>
-        <v>-333.74670600623449</v>
-      </c>
-      <c r="V5" t="s">
-        <v>121</v>
-      </c>
-      <c r="W5">
-        <v>5</v>
+        <v>144</v>
+      </c>
+      <c r="T5" s="7">
+        <f>R23</f>
+        <v>-104.436341184</v>
+      </c>
+      <c r="W5" s="7">
+        <f>X23</f>
+        <v>-38.213969358735085</v>
       </c>
       <c r="X5">
-        <f>U5/W5</f>
-        <v>-66.749341201246892</v>
-      </c>
-      <c r="Y5">
-        <v>0.1</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y5" s="12">
+        <f>T5*X5/TotalC</f>
+        <v>-5.4767163760290623E-2</v>
       </c>
       <c r="Z5" s="12">
-        <f>X5*Y5/TotalC</f>
-        <v>-7.0007663214081721E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+        <f>W5*X5/TotalC</f>
+        <v>-2.003967866045088E-2</v>
+      </c>
+      <c r="AA5" s="12">
+        <f>X5*P25*R22/1000000000/TotalC</f>
+        <v>9.3645028801694521E-2</v>
+      </c>
+      <c r="AB5" s="12">
+        <f>X5*X22/V22</f>
+        <v>9.1950163166550428E-2</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" ref="AE5:AE12" si="1">X5</f>
+        <v>0.5</v>
+      </c>
+      <c r="AF5" s="7">
+        <f t="shared" ref="AF5:AF12" si="2">T5</f>
+        <v>-104.436341184</v>
+      </c>
+      <c r="AG5" s="7">
+        <f t="shared" ref="AG5:AG12" si="3">W5</f>
+        <v>-38.213969358735085</v>
+      </c>
+      <c r="AH5" s="12">
+        <f t="shared" ref="AH5:AH12" si="4">Y5</f>
+        <v>-5.4767163760290623E-2</v>
+      </c>
+      <c r="AI5" s="12">
+        <f t="shared" ref="AI5:AI12" si="5">Z5</f>
+        <v>-2.003967866045088E-2</v>
+      </c>
+      <c r="AJ5" s="12">
+        <f t="shared" ref="AJ5:AJ8" si="6">AA26</f>
+        <v>-8.9723128662183571E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="E6" s="3" t="s">
         <v>15</v>
       </c>
@@ -1206,39 +1316,61 @@
         <v>12.242715040072133</v>
       </c>
       <c r="O6" t="s">
-        <v>123</v>
-      </c>
-      <c r="P6" s="7">
-        <f>M456+M460+M463+M476-P7</f>
-        <v>8596.3977677161856</v>
-      </c>
-      <c r="R6" s="7">
-        <f>M64+M68+M71+M84-R7</f>
-        <v>10129.008267384608</v>
-      </c>
-      <c r="U6">
+        <v>145</v>
+      </c>
+      <c r="T6" s="7">
+        <f>Q23</f>
+        <v>-295.43268148999999</v>
+      </c>
+      <c r="W6" s="7">
+        <f>W23</f>
+        <v>-5.6002394363922612</v>
+      </c>
+      <c r="X6">
+        <v>0.2</v>
+      </c>
+      <c r="Y6" s="12">
+        <f>T6*X6/TotalC</f>
+        <v>-6.1970803894012487E-2</v>
+      </c>
+      <c r="Z6" s="12">
+        <f>W6*X6/TotalC</f>
+        <v>-1.174722234932993E-3</v>
+      </c>
+      <c r="AA6" s="12">
+        <f>X6*P25*Q22/1000000000/TotalC</f>
+        <v>7.5179569309189856E-2</v>
+      </c>
+      <c r="AB6" s="12">
+        <f>X6*W22/V22</f>
+        <v>7.516965016058344E-2</v>
+      </c>
+      <c r="AE6">
         <f t="shared" si="1"/>
-        <v>1532.6104996684226</v>
-      </c>
-      <c r="V6" t="s">
-        <v>122</v>
-      </c>
-      <c r="W6">
-        <v>4.03</v>
-      </c>
-      <c r="X6">
-        <f>U6/W6</f>
-        <v>380.3003721261594</v>
-      </c>
-      <c r="Y6">
-        <v>0.1</v>
-      </c>
-      <c r="Z6" s="12">
-        <f>X6*Y6/TotalC</f>
-        <v>3.988644665679604E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+        <v>0.2</v>
+      </c>
+      <c r="AF6" s="7">
+        <f t="shared" si="2"/>
+        <v>-295.43268148999999</v>
+      </c>
+      <c r="AG6" s="7">
+        <f t="shared" si="3"/>
+        <v>-5.6002394363922612</v>
+      </c>
+      <c r="AH6" s="12">
+        <f t="shared" si="4"/>
+        <v>-6.1970803894012487E-2</v>
+      </c>
+      <c r="AI6" s="12">
+        <f t="shared" si="5"/>
+        <v>-1.174722234932993E-3</v>
+      </c>
+      <c r="AJ6" s="12">
+        <f t="shared" si="6"/>
+        <v>-0.65853617723636493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
@@ -1275,46 +1407,67 @@
         <v>13.294134267588403</v>
       </c>
       <c r="O7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P7" s="7">
         <f>M652+M656+M659+M672</f>
         <v>154.31952585863397</v>
       </c>
-      <c r="R7" s="7">
+      <c r="Q7" s="7">
         <f>M260+M264+M267+M280</f>
         <v>870.45534736427635</v>
       </c>
-      <c r="U7">
+      <c r="T7" s="7">
+        <f>Q7-P7</f>
+        <v>716.13582150564241</v>
+      </c>
+      <c r="U7" t="s">
+        <v>120</v>
+      </c>
+      <c r="V7">
+        <v>5</v>
+      </c>
+      <c r="W7" s="7">
+        <f>T7/V7</f>
+        <v>143.22716430112848</v>
+      </c>
+      <c r="X7">
+        <v>0.1</v>
+      </c>
+      <c r="Y7" s="12">
+        <f>T7*X7/TotalC</f>
+        <v>7.5109348654620461E-2</v>
+      </c>
+      <c r="Z7" s="12">
+        <f>W7*X7/TotalC</f>
+        <v>1.5021869730924092E-2</v>
+      </c>
+      <c r="AE7">
         <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="AF7" s="7">
+        <f t="shared" si="2"/>
         <v>716.13582150564241</v>
       </c>
-      <c r="V7" t="s">
-        <v>121</v>
-      </c>
-      <c r="W7">
-        <v>5</v>
-      </c>
-      <c r="X7">
-        <f>U7/W7</f>
+      <c r="AG7" s="7">
+        <f t="shared" si="3"/>
         <v>143.22716430112848</v>
       </c>
-      <c r="Y7">
-        <v>0.1</v>
-      </c>
-      <c r="Z7" s="12">
-        <f>X7*Y7/TotalC</f>
+      <c r="AH7" s="12">
+        <f t="shared" si="4"/>
+        <v>7.5109348654620461E-2</v>
+      </c>
+      <c r="AI7" s="12">
+        <f t="shared" si="5"/>
         <v>1.5021869730924092E-2</v>
       </c>
-      <c r="AB7" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC7" s="13">
-        <f>Z9+Z13</f>
-        <v>-0.39675109072059639</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="AJ7" s="12">
+        <f t="shared" si="6"/>
+        <v>-0.32816391870560413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="E8" s="3" t="s">
         <v>17</v>
       </c>
@@ -1351,39 +1504,67 @@
         <v>2898.6985157243084</v>
       </c>
       <c r="O8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="P8" s="7">
-        <f>M764+M768+M771+M784</f>
-        <v>3145.6042074763236</v>
-      </c>
-      <c r="R8" s="7">
-        <f>M372+M376+M379+M392</f>
-        <v>3372.6982158563178</v>
-      </c>
-      <c r="U8">
-        <f>R8-P8</f>
-        <v>227.09400837999419</v>
-      </c>
-      <c r="V8" t="s">
-        <v>121</v>
-      </c>
-      <c r="W8">
+        <f>M680+M684+M687+M700</f>
+        <v>1298.2574611822226</v>
+      </c>
+      <c r="Q8" s="7">
+        <f>M288+M292+M295+M308</f>
+        <v>699.87507508918975</v>
+      </c>
+      <c r="T8" s="7">
+        <f>Q8-P8</f>
+        <v>-598.38238609303289</v>
+      </c>
+      <c r="U8" t="s">
+        <v>120</v>
+      </c>
+      <c r="V8">
         <v>5</v>
       </c>
+      <c r="W8" s="7">
+        <f>T8/V8</f>
+        <v>-119.67647721860658</v>
+      </c>
       <c r="X8">
-        <f>U8/W8</f>
-        <v>45.418801675998836</v>
-      </c>
-      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="12">
+        <f>T8*X8/TotalC</f>
         <v>0</v>
       </c>
       <c r="Z8" s="12">
-        <f>X8*Y8/TotalC</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+        <f>W8*X8/TotalC</f>
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="7">
+        <f t="shared" si="2"/>
+        <v>-598.38238609303289</v>
+      </c>
+      <c r="AG8" s="7">
+        <f t="shared" si="3"/>
+        <v>-119.67647721860658</v>
+      </c>
+      <c r="AH8" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="12">
+        <f t="shared" si="6"/>
+        <v>0.55985181037141529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="E9" s="3" t="s">
         <v>18</v>
       </c>
@@ -1419,33 +1600,64 @@
         <f t="shared" si="0"/>
         <v>67.606402485657256</v>
       </c>
-      <c r="U9" s="8">
-        <f>SUM(U4:U8)</f>
-        <v>1543.7112374547919</v>
-      </c>
-      <c r="X9" s="8">
-        <f>SUM(X4:X8)</f>
-        <v>382.52051968343329</v>
-      </c>
-      <c r="Z9" s="13">
-        <f>SUM(Z4:Z8)</f>
-        <v>4.7907550066311963E-2</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC9" s="8">
-        <f>-AC10*AC11</f>
-        <v>-0.06</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>139</v>
-      </c>
-      <c r="AF9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="O9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="7">
+        <f>M428+M432+M435+M448</f>
+        <v>2479.4677438224444</v>
+      </c>
+      <c r="Q9" s="7">
+        <f>M36+M40+M43+M56</f>
+        <v>2145.7210378162099</v>
+      </c>
+      <c r="T9" s="7">
+        <f>Q9-P9</f>
+        <v>-333.74670600623449</v>
+      </c>
+      <c r="U9" t="s">
+        <v>120</v>
+      </c>
+      <c r="V9">
+        <v>5</v>
+      </c>
+      <c r="W9" s="7">
+        <f>T9/V9</f>
+        <v>-66.749341201246892</v>
+      </c>
+      <c r="X9">
+        <v>0.1</v>
+      </c>
+      <c r="Y9" s="12">
+        <f>T9*X9/TotalC</f>
+        <v>-3.5003831607040868E-2</v>
+      </c>
+      <c r="Z9" s="12">
+        <f>W9*X9/TotalC</f>
+        <v>-7.0007663214081721E-3</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="AF9" s="7">
+        <f t="shared" si="2"/>
+        <v>-333.74670600623449</v>
+      </c>
+      <c r="AG9" s="7">
+        <f t="shared" si="3"/>
+        <v>-66.749341201246892</v>
+      </c>
+      <c r="AH9" s="12">
+        <f t="shared" si="4"/>
+        <v>-3.5003831607040868E-2</v>
+      </c>
+      <c r="AI9" s="12">
+        <f t="shared" si="5"/>
+        <v>-7.0007663214081721E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="E10" s="3" t="s">
         <v>19</v>
       </c>
@@ -1481,28 +1693,64 @@
         <f t="shared" si="0"/>
         <v>1516.8102727747223</v>
       </c>
-      <c r="W10" t="s">
-        <v>124</v>
-      </c>
-      <c r="X10" s="7">
-        <f>AA20-AB20-AC20</f>
-        <v>-337.838740664</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>126</v>
+      <c r="O10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P10" s="7">
+        <f>M456+M460+M463+M476-P7</f>
+        <v>8596.3977677161856</v>
+      </c>
+      <c r="Q10" s="7">
+        <f>M64+M68+M71+M84-Q7</f>
+        <v>10129.008267384608</v>
+      </c>
+      <c r="T10" s="7">
+        <f>Q10-P10</f>
+        <v>1532.6104996684226</v>
+      </c>
+      <c r="U10" t="s">
+        <v>121</v>
+      </c>
+      <c r="V10">
+        <v>4.0350000000000001</v>
+      </c>
+      <c r="W10" s="7">
+        <f>T10/V10</f>
+        <v>379.82912011608983</v>
+      </c>
+      <c r="X10">
+        <v>0.1</v>
+      </c>
+      <c r="Y10" s="12">
+        <f>T10*X10/TotalC</f>
+        <v>0.16074238002688804</v>
       </c>
       <c r="Z10" s="12">
-        <f>Z27*Z30/TotalC</f>
-        <v>-0.42344423989152452</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC10">
+        <f>W10*X10/TotalC</f>
+        <v>3.9837021072339038E-2</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="AF10" s="7">
+        <f t="shared" si="2"/>
+        <v>1532.6104996684226</v>
+      </c>
+      <c r="AG10" s="7">
+        <f t="shared" si="3"/>
+        <v>379.82912011608983</v>
+      </c>
+      <c r="AH10" s="12">
+        <f t="shared" si="4"/>
+        <v>0.16074238002688804</v>
+      </c>
+      <c r="AI10" s="12">
+        <f t="shared" si="5"/>
+        <v>3.9837021072339038E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
@@ -1538,32 +1786,64 @@
         <f t="shared" si="0"/>
         <v>1313.988575624262</v>
       </c>
-      <c r="W11" t="s">
-        <v>112</v>
-      </c>
-      <c r="X11" s="7">
-        <f>AB20</f>
-        <v>-5.6002394363922612</v>
-      </c>
-      <c r="Y11">
-        <v>0.2</v>
+      <c r="O11" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="7">
+        <f>M764+M768+M771+M784</f>
+        <v>3145.6042074763236</v>
+      </c>
+      <c r="Q11" s="7">
+        <f>M372+M376+M379+M392</f>
+        <v>3372.6982158563178</v>
+      </c>
+      <c r="T11" s="7">
+        <f>Q11-P11</f>
+        <v>227.09400837999419</v>
+      </c>
+      <c r="U11" t="s">
+        <v>120</v>
+      </c>
+      <c r="V11">
+        <v>5</v>
+      </c>
+      <c r="W11" s="7">
+        <f>T11/V11</f>
+        <v>45.418801675998836</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="12">
+        <f>T11*X11/TotalC</f>
+        <v>0</v>
       </c>
       <c r="Z11" s="12">
-        <f>X11*Y11/TotalC</f>
-        <v>-1.174722234932993E-3</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC11">
-        <v>0.6</v>
-      </c>
-      <c r="AF11">
-        <f>1/AF9</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+        <f>W11*X11/TotalC</f>
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="7">
+        <f t="shared" si="2"/>
+        <v>227.09400837999419</v>
+      </c>
+      <c r="AG11" s="7">
+        <f t="shared" si="3"/>
+        <v>45.418801675998836</v>
+      </c>
+      <c r="AH11" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="E12" s="3" t="s">
         <v>21</v>
       </c>
@@ -1599,41 +1879,52 @@
         <f t="shared" si="0"/>
         <v>4482.0484009400607</v>
       </c>
-      <c r="O12" t="s">
-        <v>66</v>
-      </c>
-      <c r="P12" s="7">
-        <f>M708+M712+M715+M728</f>
-        <v>2784.8633321135985</v>
-      </c>
-      <c r="R12" s="7">
-        <f>M316+M320+M323+M336</f>
-        <v>1227.666860930834</v>
-      </c>
-      <c r="U12" s="8">
-        <f>R12-P12</f>
-        <v>-1557.1964711827645</v>
-      </c>
-      <c r="W12" t="s">
-        <v>113</v>
-      </c>
-      <c r="X12" s="7">
-        <f>AC20</f>
-        <v>-38.213969358735085</v>
-      </c>
-      <c r="Y12">
-        <v>0.5</v>
-      </c>
-      <c r="Z12" s="12">
-        <f>X12*Y12/TotalC</f>
-        <v>-2.003967866045088E-2</v>
-      </c>
-      <c r="AD12">
-        <f>AC7/AC9</f>
-        <v>6.6125181786766065</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="T12" s="10">
+        <f>SUM(T4:T11)</f>
+        <v>-251.37305528120805</v>
+      </c>
+      <c r="W12" s="10">
+        <f>SUM(W4:W11)</f>
+        <v>0.39631821423635927</v>
+      </c>
+      <c r="Y12" s="13">
+        <f>SUM(Y4:Y11)</f>
+        <v>-0.65853617723636493</v>
+      </c>
+      <c r="Z12" s="13">
+        <f>SUM(Z4:Z11)</f>
+        <v>-0.32816391870560413</v>
+      </c>
+      <c r="AA12" s="13">
+        <f>SUM(AA4:AA6)</f>
+        <v>0.4638149711604459</v>
+      </c>
+      <c r="AB12" s="13">
+        <f>AA12-SUM(AB4:AB6)*AB15</f>
+        <v>-8.9723128662183571E-4</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="7">
+        <f t="shared" si="2"/>
+        <v>-251.37305528120805</v>
+      </c>
+      <c r="AG12" s="7">
+        <f t="shared" si="3"/>
+        <v>0.39631821423635927</v>
+      </c>
+      <c r="AH12" s="12">
+        <f t="shared" si="4"/>
+        <v>-0.65853617723636493</v>
+      </c>
+      <c r="AI12" s="12">
+        <f t="shared" si="5"/>
+        <v>-0.32816391870560413</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="E13" s="3" t="s">
         <v>22</v>
       </c>
@@ -1669,12 +1960,8 @@
         <f t="shared" si="0"/>
         <v>309.32262342485967</v>
       </c>
-      <c r="Z13" s="13">
-        <f>SUM(Z10:Z12)</f>
-        <v>-0.44465864078690837</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="E14" s="3" t="s">
         <v>23</v>
       </c>
@@ -1710,13 +1997,26 @@
         <f t="shared" si="0"/>
         <v>4172.7257775152011</v>
       </c>
-      <c r="Y14">
-        <f>Z10*TotalC/X10</f>
-        <v>1.1950557948008886</v>
-      </c>
-      <c r="Z14" s="12"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="O14" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" s="7">
+        <f>M708+M712+M715+M728</f>
+        <v>2784.8633321135985</v>
+      </c>
+      <c r="Q14" s="7">
+        <f>M316+M320+M323+M336</f>
+        <v>1227.666860930834</v>
+      </c>
+      <c r="R14" s="8">
+        <f>Q14-P14</f>
+        <v>-1557.1964711827645</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="E15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1752,8 +2052,11 @@
         <f t="shared" si="0"/>
         <v>6307.6196089189043</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="AB15">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="E16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1789,20 +2092,8 @@
         <f t="shared" si="0"/>
         <v>1602.0629120919782</v>
       </c>
-      <c r="W16" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB16">
-        <v>-9514</v>
-      </c>
-      <c r="AC16">
-        <v>-132681</v>
-      </c>
-      <c r="AD16">
-        <v>-489979.33758025552</v>
-      </c>
-    </row>
-    <row r="17" spans="4:30" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="17" spans="4:27" x14ac:dyDescent="0.55000000000000004">
       <c r="E17" s="3" t="s">
         <v>26</v>
       </c>
@@ -1838,35 +2129,8 @@
         <f t="shared" si="0"/>
         <v>4704.9883098765322</v>
       </c>
-      <c r="O17" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>92</v>
-      </c>
-      <c r="W17" t="s">
-        <v>111</v>
-      </c>
-      <c r="X17" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="4:30" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="18" spans="4:27" x14ac:dyDescent="0.55000000000000004">
       <c r="E18" s="3" t="s">
         <v>27</v>
       </c>
@@ -1902,41 +2166,8 @@
         <f t="shared" si="0"/>
         <v>9162.8226532533827</v>
       </c>
-      <c r="O18" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q18" s="7">
-        <f>P5-DNRUDDKS!L14/1000</f>
-        <v>2090.2821417900723</v>
-      </c>
-      <c r="V18" t="s">
-        <v>114</v>
-      </c>
-      <c r="W18">
-        <v>-615488</v>
-      </c>
-      <c r="X18">
-        <v>-270689</v>
-      </c>
-      <c r="Y18">
-        <v>-192052</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB18">
-        <f>AB16*AD18/AD16</f>
-        <v>-5131.8738386353662</v>
-      </c>
-      <c r="AC18">
-        <f>AC16*AD18/AD16</f>
-        <v>-71568.441537101011</v>
-      </c>
-      <c r="AD18">
-        <v>-264296</v>
-      </c>
-    </row>
-    <row r="19" spans="4:30" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="19" spans="4:27" x14ac:dyDescent="0.55000000000000004">
       <c r="E19" s="3" t="s">
         <v>28</v>
       </c>
@@ -1972,43 +2203,20 @@
         <f t="shared" si="0"/>
         <v>1469.0097714672809</v>
       </c>
-      <c r="O19" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q19">
-        <f>P4*DNSOSB!J14/SUM(DNSOSB!J14:J15)</f>
-        <v>248.44059987618212</v>
-      </c>
-      <c r="V19" t="s">
-        <v>116</v>
+      <c r="P19" t="s">
+        <v>109</v>
       </c>
       <c r="W19">
-        <v>2916522</v>
+        <v>-9514</v>
       </c>
       <c r="X19">
-        <v>1091410</v>
+        <v>-132681</v>
       </c>
       <c r="Y19">
-        <v>543792</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA19">
-        <v>2903475</v>
-      </c>
-      <c r="AB19">
-        <v>1091266</v>
-      </c>
-      <c r="AC19">
-        <v>533950</v>
-      </c>
-      <c r="AD19">
-        <f>AA19-AB19-AC19</f>
-        <v>1278259</v>
-      </c>
-    </row>
-    <row r="20" spans="4:30" x14ac:dyDescent="0.55000000000000004">
+        <v>-489979.33758025552</v>
+      </c>
+    </row>
+    <row r="20" spans="4:27" x14ac:dyDescent="0.55000000000000004">
       <c r="E20" s="3" t="s">
         <v>29</v>
       </c>
@@ -2044,42 +2252,32 @@
         <f t="shared" si="0"/>
         <v>5646.9584576360694</v>
       </c>
-      <c r="V20" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="W20" s="10">
-        <f>W18*W19/1000000000</f>
-        <v>-1795.084292736</v>
-      </c>
-      <c r="X20" s="10">
-        <f>X18*X19/1000000000</f>
-        <v>-295.43268148999999</v>
-      </c>
-      <c r="Y20" s="10">
-        <f>Y18*Y19/1000000000</f>
-        <v>-104.436341184</v>
-      </c>
-      <c r="Z20" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA20" s="10">
-        <f>SUM(AB20:AD20)</f>
-        <v>-381.65294945912734</v>
-      </c>
-      <c r="AB20" s="10">
-        <f>AB18*AB19/1000000000</f>
-        <v>-5.6002394363922612</v>
-      </c>
-      <c r="AC20" s="10">
-        <f>AC18*AC19/1000000000</f>
-        <v>-38.213969358735085</v>
-      </c>
-      <c r="AD20" s="10">
-        <f>AD18*AD19/1000000000</f>
-        <v>-337.838740664</v>
-      </c>
-    </row>
-    <row r="21" spans="4:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="P20" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>111</v>
+      </c>
+      <c r="R20" t="s">
+        <v>112</v>
+      </c>
+      <c r="S20" t="s">
+        <v>129</v>
+      </c>
+      <c r="V20" t="s">
+        <v>110</v>
+      </c>
+      <c r="W20" t="s">
+        <v>111</v>
+      </c>
+      <c r="X20" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="4:27" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="3" t="s">
         <v>30</v>
       </c>
@@ -2115,8 +2313,34 @@
         <f t="shared" si="0"/>
         <v>362.10666245826576</v>
       </c>
-    </row>
-    <row r="22" spans="4:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="O21" t="s">
+        <v>113</v>
+      </c>
+      <c r="P21">
+        <v>-615488</v>
+      </c>
+      <c r="Q21">
+        <v>-270689</v>
+      </c>
+      <c r="R21">
+        <v>-192052</v>
+      </c>
+      <c r="U21" t="s">
+        <v>114</v>
+      </c>
+      <c r="W21">
+        <f>W19*Y21/Y19</f>
+        <v>-5131.8738386353662</v>
+      </c>
+      <c r="X21">
+        <f>X19*Y21/Y19</f>
+        <v>-71568.441537101011</v>
+      </c>
+      <c r="Y21">
+        <v>-264296</v>
+      </c>
+    </row>
+    <row r="22" spans="4:27" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="3" t="s">
         <v>31</v>
       </c>
@@ -2152,14 +2376,40 @@
         <f t="shared" si="0"/>
         <v>1684.9158376229188</v>
       </c>
-      <c r="V22" t="s">
-        <v>128</v>
+      <c r="O22" t="s">
+        <v>115</v>
+      </c>
+      <c r="P22">
+        <v>2916522</v>
+      </c>
+      <c r="Q22">
+        <v>1091410</v>
+      </c>
+      <c r="R22">
+        <v>543792</v>
+      </c>
+      <c r="S22">
+        <f>P22-Q22-R22</f>
+        <v>1281320</v>
+      </c>
+      <c r="U22" t="s">
+        <v>115</v>
+      </c>
+      <c r="V22">
+        <v>2903475</v>
       </c>
       <c r="W22">
-        <v>328385</v>
-      </c>
-    </row>
-    <row r="23" spans="4:30" x14ac:dyDescent="0.55000000000000004">
+        <v>1091266</v>
+      </c>
+      <c r="X22">
+        <v>533950</v>
+      </c>
+      <c r="Y22">
+        <f>V22-W22-X22</f>
+        <v>1278259</v>
+      </c>
+    </row>
+    <row r="23" spans="4:27" x14ac:dyDescent="0.55000000000000004">
       <c r="E23" s="3" t="s">
         <v>32</v>
       </c>
@@ -2195,14 +2445,46 @@
         <f t="shared" si="0"/>
         <v>2590.6462007541963</v>
       </c>
-      <c r="V23" t="s">
+      <c r="O23" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="W23">
-        <v>2903475</v>
-      </c>
-    </row>
-    <row r="24" spans="4:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="P23" s="10">
+        <f>P21*P22/1000000000</f>
+        <v>-1795.084292736</v>
+      </c>
+      <c r="Q23" s="10">
+        <f>Q21*Q22/1000000000</f>
+        <v>-295.43268148999999</v>
+      </c>
+      <c r="R23" s="10">
+        <f>R21*R22/1000000000</f>
+        <v>-104.436341184</v>
+      </c>
+      <c r="S23" s="10">
+        <f>P23-Q23-R23</f>
+        <v>-1395.2152700619999</v>
+      </c>
+      <c r="U23" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="V23" s="10">
+        <f>SUM(W23:Y23)</f>
+        <v>-381.65294945912734</v>
+      </c>
+      <c r="W23" s="10">
+        <f>W21*W22/1000000000</f>
+        <v>-5.6002394363922612</v>
+      </c>
+      <c r="X23" s="10">
+        <f>X21*X22/1000000000</f>
+        <v>-38.213969358735085</v>
+      </c>
+      <c r="Y23" s="10">
+        <f>Y21*Y22/1000000000</f>
+        <v>-337.838740664</v>
+      </c>
+    </row>
+    <row r="24" spans="4:27" x14ac:dyDescent="0.55000000000000004">
       <c r="E24" s="3" t="s">
         <v>33</v>
       </c>
@@ -2238,22 +2520,8 @@
         <f t="shared" si="0"/>
         <v>119.7277410089342</v>
       </c>
-      <c r="V24" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="W24" s="10">
-        <f>W22*W23/1000000000</f>
-        <v>953.45763787500005</v>
-      </c>
-      <c r="Y24" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z24" s="10">
-        <f>W24</f>
-        <v>953.45763787500005</v>
-      </c>
-    </row>
-    <row r="25" spans="4:30" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="25" spans="4:27" x14ac:dyDescent="0.55000000000000004">
       <c r="E25" s="3" t="s">
         <v>34</v>
       </c>
@@ -2289,14 +2557,30 @@
         <f t="shared" si="0"/>
         <v>1370.8790319558855</v>
       </c>
+      <c r="O25" t="s">
+        <v>125</v>
+      </c>
+      <c r="P25">
+        <v>328385</v>
+      </c>
       <c r="V25" t="s">
-        <v>129</v>
-      </c>
-      <c r="W25">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="26" spans="4:30" x14ac:dyDescent="0.55000000000000004">
+        <v>149</v>
+      </c>
+      <c r="W25" t="s">
+        <v>150</v>
+      </c>
+      <c r="X25" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA25" s="12">
+        <f>AA12</f>
+        <v>0.4638149711604459</v>
+      </c>
+    </row>
+    <row r="26" spans="4:27" x14ac:dyDescent="0.55000000000000004">
       <c r="E26" s="3" t="s">
         <v>35</v>
       </c>
@@ -2332,11 +2616,31 @@
         <f t="shared" si="0"/>
         <v>1099.8895938160317</v>
       </c>
-      <c r="AB26">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="27" spans="4:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="O26" t="s">
+        <v>115</v>
+      </c>
+      <c r="P26">
+        <v>2903475</v>
+      </c>
+      <c r="V26" t="s">
+        <v>151</v>
+      </c>
+      <c r="W26" s="11">
+        <v>-264652.2</v>
+      </c>
+      <c r="X26" s="12">
+        <f>W26*$Y$22/1000000000/TotalC</f>
+        <v>-0.35480764229207523</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA26" s="12">
+        <f>AB12</f>
+        <v>-8.9723128662183571E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="4:27" x14ac:dyDescent="0.55000000000000004">
       <c r="E27" s="3" t="s">
         <v>36</v>
       </c>
@@ -2372,22 +2676,39 @@
         <f t="shared" si="0"/>
         <v>701.90745105927158</v>
       </c>
-      <c r="Y27" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z27" s="11">
-        <v>-0.80592039999999998</v>
-      </c>
-      <c r="AB27">
-        <f>Z27*Z30</f>
-        <v>-403.73614473874784</v>
-      </c>
-      <c r="AC27">
-        <f>AB27*AB26/TotalC</f>
-        <v>-0.55047751185898197</v>
-      </c>
-    </row>
-    <row r="28" spans="4:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="O27" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="P27" s="10">
+        <f>P25*P26/1000000000</f>
+        <v>953.45763787500005</v>
+      </c>
+      <c r="R27" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="S27" s="10">
+        <f>P27</f>
+        <v>953.45763787500005</v>
+      </c>
+      <c r="V27" t="s">
+        <v>152</v>
+      </c>
+      <c r="W27" s="11">
+        <v>-553942.19999999995</v>
+      </c>
+      <c r="X27" s="12">
+        <f>W27*$Y$22/1000000000/TotalC</f>
+        <v>-0.74264610665652941</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA27" s="12">
+        <f>Y12</f>
+        <v>-0.65853617723636493</v>
+      </c>
+    </row>
+    <row r="28" spans="4:27" x14ac:dyDescent="0.55000000000000004">
       <c r="E28" s="3" t="s">
         <v>37</v>
       </c>
@@ -2423,22 +2744,31 @@
         <f t="shared" si="0"/>
         <v>1436.4110890925772</v>
       </c>
-      <c r="U28">
-        <f>U30*W22</f>
-        <v>-281425.94500000001</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z28">
-        <f>(W19-X19-Y19)/W19</f>
-        <v>0.43933150512836866</v>
-      </c>
-      <c r="AC28">
-        <v>-0.32</v>
-      </c>
-    </row>
-    <row r="29" spans="4:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="O28" t="s">
+        <v>126</v>
+      </c>
+      <c r="P28">
+        <v>872</v>
+      </c>
+      <c r="V28" t="s">
+        <v>153</v>
+      </c>
+      <c r="W28" s="11">
+        <v>220034.3</v>
+      </c>
+      <c r="X28" s="12">
+        <f>W28*$Y$22/1000000000/TotalC</f>
+        <v>0.29499037304956155</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA28" s="12">
+        <f>Z12</f>
+        <v>-0.32816391870560413</v>
+      </c>
+    </row>
+    <row r="29" spans="4:27" x14ac:dyDescent="0.55000000000000004">
       <c r="E29" s="3" t="s">
         <v>38</v>
       </c>
@@ -2474,14 +2804,25 @@
         <f t="shared" si="0"/>
         <v>118.65483205419413</v>
       </c>
-      <c r="Y29" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z29">
-        <v>390974</v>
-      </c>
-    </row>
-    <row r="30" spans="4:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="V29" t="s">
+        <v>154</v>
+      </c>
+      <c r="W29" s="11">
+        <v>202944.5</v>
+      </c>
+      <c r="X29" s="12">
+        <f>W29*$Y$22/1000000000/TotalC</f>
+        <v>0.27207882481666146</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA29" s="12">
+        <f>1-(X29+Q22/P22*X6+R22/P22*X5)</f>
+        <v>0.55985181037141529</v>
+      </c>
+    </row>
+    <row r="30" spans="4:27" x14ac:dyDescent="0.55000000000000004">
       <c r="E30" s="3" t="s">
         <v>39</v>
       </c>
@@ -2517,21 +2858,18 @@
         <f t="shared" si="0"/>
         <v>1318.0536730914262</v>
       </c>
-      <c r="T30" t="s">
-        <v>140</v>
-      </c>
-      <c r="U30">
-        <v>-0.85699999999999998</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z30">
-        <f>Z29*W19*Z28/1000000000</f>
-        <v>500.96280567999997</v>
-      </c>
-    </row>
-    <row r="31" spans="4:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="V30" t="s">
+        <v>162</v>
+      </c>
+      <c r="W30" s="11">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="X30" s="12">
+        <f>W30*Y22/V22</f>
+        <v>0.25534582526110955</v>
+      </c>
+    </row>
+    <row r="31" spans="4:27" x14ac:dyDescent="0.55000000000000004">
       <c r="E31" s="3" t="s">
         <v>40</v>
       </c>
@@ -2567,12 +2905,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U31">
-        <f>U30*W19*Z28*W22/1000000000</f>
-        <v>-360.59669184740005</v>
-      </c>
-    </row>
-    <row r="32" spans="4:30" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="32" spans="4:27" x14ac:dyDescent="0.55000000000000004">
       <c r="D32" s="3" t="s">
         <v>41</v>
       </c>
@@ -2611,11 +2945,11 @@
         <f t="shared" si="0"/>
         <v>4845.5089331573936</v>
       </c>
-      <c r="AB32" s="11">
-        <v>264296</v>
-      </c>
-    </row>
-    <row r="33" spans="5:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q32" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="5:19" x14ac:dyDescent="0.55000000000000004">
       <c r="E33" s="3" t="s">
         <v>14</v>
       </c>
@@ -2651,12 +2985,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB33">
-        <f>AB32*(W19-X19-Y19)/1000000000</f>
-        <v>338.64775071999998</v>
-      </c>
-    </row>
-    <row r="34" spans="5:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q33" s="11">
+        <v>394778.5</v>
+      </c>
+      <c r="R33">
+        <f>Q33*Y22/1000000000</f>
+        <v>504.62917063150002</v>
+      </c>
+      <c r="S33">
+        <f>R33/TotalC</f>
+        <v>0.52926228768399441</v>
+      </c>
+    </row>
+    <row r="34" spans="5:19" x14ac:dyDescent="0.55000000000000004">
       <c r="E34" s="3" t="s">
         <v>15</v>
       </c>
@@ -2693,7 +3034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="5:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="5:19" x14ac:dyDescent="0.55000000000000004">
       <c r="E35" s="3" t="s">
         <v>16</v>
       </c>
@@ -2730,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="5:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="5:19" x14ac:dyDescent="0.55000000000000004">
       <c r="E36" s="3" t="s">
         <v>17</v>
       </c>
@@ -2767,7 +3108,7 @@
         <v>283.25244831301319</v>
       </c>
     </row>
-    <row r="37" spans="5:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="5:19" x14ac:dyDescent="0.55000000000000004">
       <c r="E37" s="3" t="s">
         <v>18</v>
       </c>
@@ -2804,7 +3145,7 @@
         <v>13.386830853674757</v>
       </c>
     </row>
-    <row r="38" spans="5:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="5:19" x14ac:dyDescent="0.55000000000000004">
       <c r="E38" s="3" t="s">
         <v>19</v>
       </c>
@@ -2841,7 +3182,7 @@
         <v>195.40766107375495</v>
       </c>
     </row>
-    <row r="39" spans="5:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="5:19" x14ac:dyDescent="0.55000000000000004">
       <c r="E39" s="3" t="s">
         <v>20</v>
       </c>
@@ -2878,7 +3219,7 @@
         <v>74.749778223807866</v>
       </c>
     </row>
-    <row r="40" spans="5:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="5:19" x14ac:dyDescent="0.55000000000000004">
       <c r="E40" s="3" t="s">
         <v>21</v>
       </c>
@@ -2915,7 +3256,7 @@
         <v>129.21356840539235</v>
       </c>
     </row>
-    <row r="41" spans="5:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="5:19" x14ac:dyDescent="0.55000000000000004">
       <c r="E41" s="3" t="s">
         <v>22</v>
       </c>
@@ -2952,7 +3293,7 @@
         <v>7.3697718741785962</v>
       </c>
     </row>
-    <row r="42" spans="5:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="5:19" x14ac:dyDescent="0.55000000000000004">
       <c r="E42" s="3" t="s">
         <v>23</v>
       </c>
@@ -2989,7 +3330,7 @@
         <v>121.84379653121375</v>
       </c>
     </row>
-    <row r="43" spans="5:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="5:19" x14ac:dyDescent="0.55000000000000004">
       <c r="E43" s="3" t="s">
         <v>24</v>
       </c>
@@ -3026,7 +3367,7 @@
         <v>815.17884617900677</v>
       </c>
     </row>
-    <row r="44" spans="5:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="5:19" x14ac:dyDescent="0.55000000000000004">
       <c r="E44" s="3" t="s">
         <v>25</v>
       </c>
@@ -3063,7 +3404,7 @@
         <v>689.85757009531278</v>
       </c>
     </row>
-    <row r="45" spans="5:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="5:19" x14ac:dyDescent="0.55000000000000004">
       <c r="E45" s="3" t="s">
         <v>26</v>
       </c>
@@ -3100,7 +3441,7 @@
         <v>125.47024077906121</v>
       </c>
     </row>
-    <row r="46" spans="5:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="5:19" x14ac:dyDescent="0.55000000000000004">
       <c r="E46" s="3" t="s">
         <v>27</v>
       </c>
@@ -3137,7 +3478,7 @@
         <v>2599.4667089249865</v>
       </c>
     </row>
-    <row r="47" spans="5:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="5:19" x14ac:dyDescent="0.55000000000000004">
       <c r="E47" s="3" t="s">
         <v>28</v>
       </c>
@@ -3174,7 +3515,7 @@
         <v>90.15783609834854</v>
       </c>
     </row>
-    <row r="48" spans="5:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="5:19" x14ac:dyDescent="0.55000000000000004">
       <c r="E48" s="3" t="s">
         <v>29</v>
       </c>
@@ -3987,7 +4328,7 @@
         <v>156</v>
       </c>
       <c r="M69" s="7">
-        <f t="shared" ref="M69:M132" si="2">AVERAGE(F69:L69)</f>
+        <f t="shared" ref="M69:M132" si="7">AVERAGE(F69:L69)</f>
         <v>301.38027553232195</v>
       </c>
     </row>
@@ -4024,7 +4365,7 @@
         <v>3927</v>
       </c>
       <c r="M70" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3707.6937494747003</v>
       </c>
     </row>
@@ -4061,7 +4402,7 @@
         <v>5206</v>
       </c>
       <c r="M71" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>5234.2287665125323</v>
       </c>
     </row>
@@ -4098,7 +4439,7 @@
         <v>797</v>
       </c>
       <c r="M72" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>901.71919908407222</v>
       </c>
     </row>
@@ -4135,7 +4476,7 @@
         <v>4409</v>
       </c>
       <c r="M73" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>4332.3640917229031</v>
       </c>
     </row>
@@ -4172,7 +4513,7 @@
         <v>6028</v>
       </c>
       <c r="M74" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>4754.9380509906396</v>
       </c>
     </row>
@@ -4209,7 +4550,7 @@
         <v>1527</v>
       </c>
       <c r="M75" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1077.1885418729057</v>
       </c>
     </row>
@@ -4246,7 +4587,7 @@
         <v>2857</v>
       </c>
       <c r="M76" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2412.5435759044417</v>
       </c>
     </row>
@@ -4283,7 +4624,7 @@
         <v>133</v>
       </c>
       <c r="M77" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>76.118358714908837</v>
       </c>
     </row>
@@ -4320,7 +4661,7 @@
         <v>1510</v>
       </c>
       <c r="M78" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1188.9502511845706</v>
       </c>
     </row>
@@ -4357,7 +4698,7 @@
         <v>9</v>
       </c>
       <c r="M79" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>11.080697479850533</v>
       </c>
     </row>
@@ -4394,7 +4735,7 @@
         <v>9</v>
       </c>
       <c r="M80" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>11.080697479850533</v>
       </c>
     </row>
@@ -4431,7 +4772,7 @@
         <v>0</v>
       </c>
       <c r="M81" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4468,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="M82" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4505,7 +4846,7 @@
         <v>662</v>
       </c>
       <c r="M83" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>599.50792255991371</v>
       </c>
     </row>
@@ -4542,7 +4883,7 @@
         <v>481</v>
       </c>
       <c r="M84" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>395.67249914951816</v>
       </c>
     </row>
@@ -4579,7 +4920,7 @@
         <v>9</v>
       </c>
       <c r="M85" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>5.1024347639084384</v>
       </c>
     </row>
@@ -4616,7 +4957,7 @@
         <v>472</v>
       </c>
       <c r="M86" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>390.57006438560978</v>
       </c>
     </row>
@@ -4653,7 +4994,7 @@
         <v>0</v>
       </c>
       <c r="M87" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4693,7 +5034,7 @@
         <v>476</v>
       </c>
       <c r="M88" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>567.74169187597988</v>
       </c>
     </row>
@@ -4730,7 +5071,7 @@
         <v>14</v>
       </c>
       <c r="M89" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>25.693490911670558</v>
       </c>
     </row>
@@ -4767,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="M90" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>12.242715040072133</v>
       </c>
     </row>
@@ -4804,7 +5145,7 @@
         <v>14</v>
       </c>
       <c r="M91" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>13.294134267588403</v>
       </c>
     </row>
@@ -4841,7 +5182,7 @@
         <v>107</v>
       </c>
       <c r="M92" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>207.20665642783658</v>
       </c>
     </row>
@@ -4878,7 +5219,7 @@
         <v>0</v>
       </c>
       <c r="M93" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4915,7 +5256,7 @@
         <v>31</v>
       </c>
       <c r="M94" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>46.026113420167967</v>
       </c>
     </row>
@@ -4952,7 +5293,7 @@
         <v>75</v>
       </c>
       <c r="M95" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>161.03768586481144</v>
       </c>
     </row>
@@ -4989,7 +5330,7 @@
         <v>319</v>
       </c>
       <c r="M96" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>292.97000473717168</v>
       </c>
     </row>
@@ -5026,7 +5367,7 @@
         <v>30</v>
       </c>
       <c r="M97" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>114.27467754740884</v>
       </c>
     </row>
@@ -5063,7 +5404,7 @@
         <v>289</v>
       </c>
       <c r="M98" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>178.83962733406301</v>
       </c>
     </row>
@@ -5100,7 +5441,7 @@
         <v>35</v>
       </c>
       <c r="M99" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>37.253880698385373</v>
       </c>
     </row>
@@ -5137,7 +5478,7 @@
         <v>35</v>
       </c>
       <c r="M100" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>35.288281164981754</v>
       </c>
     </row>
@@ -5174,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="M101" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.9655995334036167</v>
       </c>
     </row>
@@ -5211,7 +5552,7 @@
         <v>1</v>
       </c>
       <c r="M102" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.5364467341790018</v>
       </c>
     </row>
@@ -5248,7 +5589,7 @@
         <v>0</v>
       </c>
       <c r="M103" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5285,7 +5626,7 @@
         <v>1</v>
       </c>
       <c r="M104" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.086540290501635</v>
       </c>
     </row>
@@ -5322,7 +5663,7 @@
         <v>0</v>
       </c>
       <c r="M105" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.74849805797745772</v>
       </c>
     </row>
@@ -5359,7 +5700,7 @@
         <v>0</v>
       </c>
       <c r="M106" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5396,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="M107" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5433,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="M108" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5470,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="M109" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5507,7 +5848,7 @@
         <v>0</v>
       </c>
       <c r="M110" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5544,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="M111" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.86788454812894733</v>
       </c>
     </row>
@@ -5581,7 +5922,7 @@
         <v>0</v>
       </c>
       <c r="M112" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.0617445605404272</v>
       </c>
     </row>
@@ -5618,7 +5959,7 @@
         <v>0</v>
       </c>
       <c r="M113" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5655,7 +5996,7 @@
         <v>0</v>
       </c>
       <c r="M114" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.0617445605404272</v>
       </c>
     </row>
@@ -5692,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="M115" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5732,7 +6073,7 @@
         <v>7692</v>
       </c>
       <c r="M116" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>8112.3700275843939</v>
       </c>
     </row>
@@ -5769,7 +6110,7 @@
         <v>0</v>
       </c>
       <c r="M117" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5806,7 +6147,7 @@
         <v>0</v>
       </c>
       <c r="M118" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5843,7 +6184,7 @@
         <v>0</v>
       </c>
       <c r="M119" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5880,7 +6221,7 @@
         <v>687</v>
       </c>
       <c r="M120" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>941.99655637910917</v>
       </c>
     </row>
@@ -5917,7 +6258,7 @@
         <v>11</v>
       </c>
       <c r="M121" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>12.129136662927165</v>
       </c>
     </row>
@@ -5954,7 +6295,7 @@
         <v>494</v>
       </c>
       <c r="M122" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>413.6960478993804</v>
       </c>
     </row>
@@ -5991,7 +6332,7 @@
         <v>182</v>
       </c>
       <c r="M123" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>516.46878786984462</v>
       </c>
     </row>
@@ -6028,7 +6369,7 @@
         <v>1080</v>
       </c>
       <c r="M124" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1233.3880703689242</v>
       </c>
     </row>
@@ -6065,7 +6406,7 @@
         <v>109</v>
       </c>
       <c r="M125" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>163.24523777236718</v>
       </c>
     </row>
@@ -6102,7 +6443,7 @@
         <v>970</v>
       </c>
       <c r="M126" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1069.9964497584328</v>
       </c>
     </row>
@@ -6139,7 +6480,7 @@
         <v>5006</v>
       </c>
       <c r="M127" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>5014.9577011516249</v>
       </c>
     </row>
@@ -6176,7 +6517,7 @@
         <v>681</v>
       </c>
       <c r="M128" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>769.72769029293227</v>
       </c>
     </row>
@@ -6213,7 +6554,7 @@
         <v>4325</v>
       </c>
       <c r="M129" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>4245.5189174305715</v>
       </c>
     </row>
@@ -6250,7 +6591,7 @@
         <v>310</v>
       </c>
       <c r="M130" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>306.85716644275738</v>
       </c>
     </row>
@@ -6287,7 +6628,7 @@
         <v>37</v>
       </c>
       <c r="M131" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>38.102302026349484</v>
       </c>
     </row>
@@ -6324,7 +6665,7 @@
         <v>226</v>
       </c>
       <c r="M132" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>233.90256852947272</v>
       </c>
     </row>
@@ -6361,7 +6702,7 @@
         <v>0</v>
       </c>
       <c r="M133" s="7">
-        <f t="shared" ref="M133:M196" si="3">AVERAGE(F133:L133)</f>
+        <f t="shared" ref="M133:M196" si="8">AVERAGE(F133:L133)</f>
         <v>0.74849805797745772</v>
       </c>
     </row>
@@ -6398,7 +6739,7 @@
         <v>47</v>
       </c>
       <c r="M134" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>34.55785548601078</v>
       </c>
     </row>
@@ -6435,7 +6776,7 @@
         <v>0</v>
       </c>
       <c r="M135" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6472,7 +6813,7 @@
         <v>0</v>
       </c>
       <c r="M136" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6509,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="M137" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6546,7 +6887,7 @@
         <v>0</v>
       </c>
       <c r="M138" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6583,7 +6924,7 @@
         <v>498</v>
       </c>
       <c r="M139" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>516.74950684050589</v>
       </c>
     </row>
@@ -6620,7 +6961,7 @@
         <v>111</v>
       </c>
       <c r="M140" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>98.424552096740527</v>
       </c>
     </row>
@@ -6657,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="M141" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6694,7 +7035,7 @@
         <v>111</v>
       </c>
       <c r="M142" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>98.424552096740527</v>
       </c>
     </row>
@@ -6731,7 +7072,7 @@
         <v>0</v>
       </c>
       <c r="M143" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6771,7 +7112,7 @@
         <v>2079</v>
       </c>
       <c r="M144" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1639.42335659381</v>
       </c>
     </row>
@@ -6808,7 +7149,7 @@
         <v>0</v>
       </c>
       <c r="M145" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6845,7 +7186,7 @@
         <v>0</v>
       </c>
       <c r="M146" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6882,7 +7223,7 @@
         <v>0</v>
       </c>
       <c r="M147" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6919,7 +7260,7 @@
         <v>43</v>
       </c>
       <c r="M148" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>27.849104595724516</v>
       </c>
     </row>
@@ -6956,7 +7297,7 @@
         <v>0</v>
       </c>
       <c r="M149" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6993,7 +7334,7 @@
         <v>42</v>
       </c>
       <c r="M150" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>21.797333227164398</v>
       </c>
     </row>
@@ -7030,7 +7371,7 @@
         <v>1</v>
       </c>
       <c r="M151" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6.2084129725701365</v>
       </c>
     </row>
@@ -7067,7 +7408,7 @@
         <v>1051</v>
       </c>
       <c r="M152" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>902.91071620279115</v>
       </c>
     </row>
@@ -7104,7 +7445,7 @@
         <v>0</v>
       </c>
       <c r="M153" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>9.330457267221794</v>
       </c>
     </row>
@@ -7141,7 +7482,7 @@
         <v>1050</v>
       </c>
       <c r="M154" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>893.58287749826945</v>
       </c>
     </row>
@@ -7178,7 +7519,7 @@
         <v>0</v>
       </c>
       <c r="M155" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.75261256589609749</v>
       </c>
     </row>
@@ -7215,7 +7556,7 @@
         <v>0</v>
       </c>
       <c r="M156" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.60831242159595322</v>
       </c>
     </row>
@@ -7252,7 +7593,7 @@
         <v>0</v>
       </c>
       <c r="M157" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -7289,7 +7630,7 @@
         <v>974</v>
       </c>
       <c r="M158" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>700.51122823389335</v>
       </c>
     </row>
@@ -7326,7 +7667,7 @@
         <v>759</v>
       </c>
       <c r="M159" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>515.54777704773653</v>
       </c>
     </row>
@@ -7363,7 +7704,7 @@
         <v>23</v>
       </c>
       <c r="M160" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>56.901492995299215</v>
       </c>
     </row>
@@ -7400,7 +7741,7 @@
         <v>0</v>
       </c>
       <c r="M161" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.1434308663224326</v>
       </c>
     </row>
@@ -7437,7 +7778,7 @@
         <v>192</v>
       </c>
       <c r="M162" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>127.90622257028235</v>
       </c>
     </row>
@@ -7474,7 +7815,7 @@
         <v>0</v>
       </c>
       <c r="M163" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -7511,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="M164" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -7548,7 +7889,7 @@
         <v>0</v>
       </c>
       <c r="M165" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -7585,7 +7926,7 @@
         <v>0</v>
       </c>
       <c r="M166" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -7622,7 +7963,7 @@
         <v>12</v>
       </c>
       <c r="M167" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>7.6944924858477419</v>
       </c>
     </row>
@@ -7659,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="M168" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -7696,7 +8037,7 @@
         <v>0</v>
       </c>
       <c r="M169" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -7733,7 +8074,7 @@
         <v>0</v>
       </c>
       <c r="M170" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -7770,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="M171" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -7810,7 +8151,7 @@
         <v>3603</v>
       </c>
       <c r="M172" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2865.8160222208103</v>
       </c>
     </row>
@@ -7847,7 +8188,7 @@
         <v>0</v>
       </c>
       <c r="M173" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -7884,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="M174" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -7921,7 +8262,7 @@
         <v>0</v>
       </c>
       <c r="M175" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -7958,7 +8299,7 @@
         <v>104</v>
       </c>
       <c r="M176" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>89.303757537804046</v>
       </c>
     </row>
@@ -7995,7 +8336,7 @@
         <v>0</v>
       </c>
       <c r="M177" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8032,7 +8373,7 @@
         <v>81</v>
       </c>
       <c r="M178" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>68.050030603629438</v>
       </c>
     </row>
@@ -8069,7 +8410,7 @@
         <v>23</v>
       </c>
       <c r="M179" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>21.410368538184635</v>
       </c>
     </row>
@@ -8106,7 +8447,7 @@
         <v>100</v>
       </c>
       <c r="M180" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>127.50369820172894</v>
       </c>
     </row>
@@ -8143,7 +8484,7 @@
         <v>4</v>
       </c>
       <c r="M181" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.583892581942816</v>
       </c>
     </row>
@@ -8180,7 +8521,7 @@
         <v>96</v>
       </c>
       <c r="M182" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>125.9198056197861</v>
       </c>
     </row>
@@ -8217,7 +8558,7 @@
         <v>109</v>
       </c>
       <c r="M183" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>138.62456935165505</v>
       </c>
     </row>
@@ -8254,7 +8595,7 @@
         <v>58</v>
       </c>
       <c r="M184" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>71.933061546372514</v>
       </c>
     </row>
@@ -8291,7 +8632,7 @@
         <v>52</v>
       </c>
       <c r="M185" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>67.144122460892603</v>
       </c>
     </row>
@@ -8328,7 +8669,7 @@
         <v>2981</v>
       </c>
       <c r="M186" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2277.8820632901438</v>
       </c>
     </row>
@@ -8365,7 +8706,7 @@
         <v>568</v>
       </c>
       <c r="M187" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>385.66784918333371</v>
       </c>
     </row>
@@ -8402,7 +8743,7 @@
         <v>2107</v>
       </c>
       <c r="M188" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1716.221938741988</v>
       </c>
     </row>
@@ -8439,7 +8780,7 @@
         <v>94</v>
       </c>
       <c r="M189" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>15.645635993350959</v>
       </c>
     </row>
@@ -8476,7 +8817,7 @@
         <v>212</v>
       </c>
       <c r="M190" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>160.05424380978192</v>
       </c>
     </row>
@@ -8513,7 +8854,7 @@
         <v>0</v>
       </c>
       <c r="M191" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8550,7 +8891,7 @@
         <v>0</v>
       </c>
       <c r="M192" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8587,7 +8928,7 @@
         <v>0</v>
       </c>
       <c r="M193" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8624,7 +8965,7 @@
         <v>0</v>
       </c>
       <c r="M194" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8661,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="M195" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.57633129922286552</v>
       </c>
     </row>
@@ -8698,7 +9039,7 @@
         <v>309</v>
       </c>
       <c r="M196" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>231.76809165826776</v>
       </c>
     </row>
@@ -8735,7 +9076,7 @@
         <v>5</v>
       </c>
       <c r="M197" s="7">
-        <f t="shared" ref="M197:M260" si="4">AVERAGE(F197:L197)</f>
+        <f t="shared" ref="M197:M260" si="9">AVERAGE(F197:L197)</f>
         <v>3.3645569952449925</v>
       </c>
     </row>
@@ -8772,7 +9113,7 @@
         <v>304</v>
       </c>
       <c r="M198" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>228.55249935838992</v>
       </c>
     </row>
@@ -8809,7 +9150,7 @@
         <v>0</v>
       </c>
       <c r="M199" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -8849,7 +9190,7 @@
         <v>33</v>
       </c>
       <c r="M200" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>28.529752330990458</v>
       </c>
     </row>
@@ -8886,7 +9227,7 @@
         <v>0</v>
       </c>
       <c r="M201" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -8923,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="M202" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -8960,7 +9301,7 @@
         <v>0</v>
       </c>
       <c r="M203" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -8997,7 +9338,7 @@
         <v>6</v>
       </c>
       <c r="M204" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>6.7448882113569955</v>
       </c>
     </row>
@@ -9034,7 +9375,7 @@
         <v>0</v>
       </c>
       <c r="M205" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9071,7 +9412,7 @@
         <v>5</v>
       </c>
       <c r="M206" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>5.7101021441999622</v>
       </c>
     </row>
@@ -9108,7 +9449,7 @@
         <v>1</v>
       </c>
       <c r="M207" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.034786067157033</v>
       </c>
     </row>
@@ -9145,7 +9486,7 @@
         <v>4</v>
       </c>
       <c r="M208" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.856569164675248</v>
       </c>
     </row>
@@ -9182,7 +9523,7 @@
         <v>0</v>
       </c>
       <c r="M209" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9219,7 +9560,7 @@
         <v>4</v>
       </c>
       <c r="M210" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.7076044693080501</v>
       </c>
     </row>
@@ -9256,7 +9597,7 @@
         <v>3</v>
       </c>
       <c r="M211" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.9236452560959685</v>
       </c>
     </row>
@@ -9293,7 +9634,7 @@
         <v>3</v>
       </c>
       <c r="M212" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.9236452560959685</v>
       </c>
     </row>
@@ -9330,7 +9671,7 @@
         <v>0</v>
       </c>
       <c r="M213" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9367,7 +9708,7 @@
         <v>20</v>
       </c>
       <c r="M214" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>9.8386505997275915</v>
       </c>
     </row>
@@ -9404,7 +9745,7 @@
         <v>2</v>
       </c>
       <c r="M215" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.1755983707794366</v>
       </c>
     </row>
@@ -9441,7 +9782,7 @@
         <v>17</v>
       </c>
       <c r="M216" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>7.927163070866551</v>
       </c>
     </row>
@@ -9478,7 +9819,7 @@
         <v>0</v>
       </c>
       <c r="M217" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9515,7 +9856,7 @@
         <v>2</v>
       </c>
       <c r="M218" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.0210016060041509</v>
       </c>
     </row>
@@ -9552,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="M219" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9589,7 +9930,7 @@
         <v>0</v>
       </c>
       <c r="M220" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9626,7 +9967,7 @@
         <v>0</v>
       </c>
       <c r="M221" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9663,7 +10004,7 @@
         <v>0</v>
       </c>
       <c r="M222" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9700,7 +10041,7 @@
         <v>0</v>
       </c>
       <c r="M223" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9737,7 +10078,7 @@
         <v>0</v>
       </c>
       <c r="M224" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.6126861308242324</v>
       </c>
     </row>
@@ -9774,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="M225" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.14896469536719795</v>
       </c>
     </row>
@@ -9811,7 +10152,7 @@
         <v>0</v>
       </c>
       <c r="M226" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.3070798314470098</v>
       </c>
     </row>
@@ -9848,7 +10189,7 @@
         <v>0</v>
       </c>
       <c r="M227" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9888,7 +10229,7 @@
         <v>2129</v>
       </c>
       <c r="M228" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1802.2197957208857</v>
       </c>
     </row>
@@ -9925,7 +10266,7 @@
         <v>0</v>
       </c>
       <c r="M229" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9962,7 +10303,7 @@
         <v>0</v>
       </c>
       <c r="M230" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9999,7 +10340,7 @@
         <v>0</v>
       </c>
       <c r="M231" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10036,7 +10377,7 @@
         <v>28</v>
       </c>
       <c r="M232" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>34.74987102097387</v>
       </c>
     </row>
@@ -10073,7 +10414,7 @@
         <v>0</v>
       </c>
       <c r="M233" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10110,7 +10451,7 @@
         <v>19</v>
       </c>
       <c r="M234" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>17.072649888442594</v>
       </c>
     </row>
@@ -10147,7 +10488,7 @@
         <v>10</v>
       </c>
       <c r="M235" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>17.674602569831244</v>
       </c>
     </row>
@@ -10184,7 +10525,7 @@
         <v>792</v>
       </c>
       <c r="M236" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>672.61785006478874</v>
       </c>
     </row>
@@ -10221,7 +10562,7 @@
         <v>8</v>
       </c>
       <c r="M237" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3.325259340416288</v>
       </c>
     </row>
@@ -10258,7 +10599,7 @@
         <v>784</v>
       </c>
       <c r="M238" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>669.13594912036228</v>
       </c>
     </row>
@@ -10295,7 +10636,7 @@
         <v>21</v>
       </c>
       <c r="M239" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>23.218638104802778</v>
       </c>
     </row>
@@ -10332,7 +10673,7 @@
         <v>5</v>
       </c>
       <c r="M240" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>11.876081411392937</v>
       </c>
     </row>
@@ -10369,7 +10710,7 @@
         <v>16</v>
       </c>
       <c r="M241" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>11.648162992787061</v>
       </c>
     </row>
@@ -10406,7 +10747,7 @@
         <v>1158</v>
       </c>
       <c r="M242" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>973.13009175452078</v>
       </c>
     </row>
@@ -10443,7 +10784,7 @@
         <v>135</v>
       </c>
       <c r="M243" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>92.562646553076462</v>
       </c>
     </row>
@@ -10480,7 +10821,7 @@
         <v>288</v>
       </c>
       <c r="M244" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>277.74391112599335</v>
       </c>
     </row>
@@ -10517,7 +10858,7 @@
         <v>1</v>
       </c>
       <c r="M245" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.8253932237126564</v>
       </c>
     </row>
@@ -10554,7 +10895,7 @@
         <v>735</v>
       </c>
       <c r="M246" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>598.1465318236402</v>
       </c>
     </row>
@@ -10591,7 +10932,7 @@
         <v>9</v>
       </c>
       <c r="M247" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10.778580170283336</v>
       </c>
     </row>
@@ -10628,7 +10969,7 @@
         <v>9</v>
       </c>
       <c r="M248" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10.778580170283336</v>
       </c>
     </row>
@@ -10665,7 +11006,7 @@
         <v>0</v>
       </c>
       <c r="M249" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10702,7 +11043,7 @@
         <v>0</v>
       </c>
       <c r="M250" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10739,7 +11080,7 @@
         <v>83</v>
       </c>
       <c r="M251" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>53.857449490598746</v>
       </c>
     </row>
@@ -10776,7 +11117,7 @@
         <v>37</v>
       </c>
       <c r="M252" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>33.710733896681525</v>
       </c>
     </row>
@@ -10813,7 +11154,7 @@
         <v>4</v>
       </c>
       <c r="M253" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.5812728701105017</v>
       </c>
     </row>
@@ -10850,7 +11191,7 @@
         <v>32</v>
       </c>
       <c r="M254" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>32.132079589271058</v>
       </c>
     </row>
@@ -10887,7 +11228,7 @@
         <v>0</v>
       </c>
       <c r="M255" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10927,7 +11268,7 @@
         <v>1489</v>
       </c>
       <c r="M256" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1374.2909051513536</v>
       </c>
     </row>
@@ -10964,7 +11305,7 @@
         <v>0</v>
       </c>
       <c r="M257" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11001,7 +11342,7 @@
         <v>0</v>
       </c>
       <c r="M258" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11038,7 +11379,7 @@
         <v>0</v>
       </c>
       <c r="M259" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11075,7 +11416,7 @@
         <v>44</v>
       </c>
       <c r="M260" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>52.778240675723076</v>
       </c>
     </row>
@@ -11112,7 +11453,7 @@
         <v>0</v>
       </c>
       <c r="M261" s="7">
-        <f t="shared" ref="M261:M324" si="5">AVERAGE(F261:L261)</f>
+        <f t="shared" ref="M261:M324" si="10">AVERAGE(F261:L261)</f>
         <v>0</v>
       </c>
     </row>
@@ -11149,7 +11490,7 @@
         <v>5</v>
       </c>
       <c r="M262" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>6.902278049071108</v>
       </c>
     </row>
@@ -11186,7 +11527,7 @@
         <v>39</v>
       </c>
       <c r="M263" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>45.73166248235183</v>
       </c>
     </row>
@@ -11223,7 +11564,7 @@
         <v>739</v>
       </c>
       <c r="M264" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>775.25626141897897</v>
       </c>
     </row>
@@ -11260,7 +11601,7 @@
         <v>4</v>
       </c>
       <c r="M265" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>9.4620634305879729</v>
       </c>
     </row>
@@ -11297,7 +11638,7 @@
         <v>735</v>
       </c>
       <c r="M266" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>765.94818317511147</v>
       </c>
     </row>
@@ -11334,7 +11675,7 @@
         <v>32</v>
       </c>
       <c r="M267" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>16.192982362673909</v>
       </c>
     </row>
@@ -11371,7 +11712,7 @@
         <v>15</v>
       </c>
       <c r="M268" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>9.6675262356660756</v>
       </c>
     </row>
@@ -11408,7 +11749,7 @@
         <v>16</v>
       </c>
       <c r="M269" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>6.5260298504731225</v>
       </c>
     </row>
@@ -11445,7 +11786,7 @@
         <v>584</v>
       </c>
       <c r="M270" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>484.18149795198218</v>
       </c>
     </row>
@@ -11482,7 +11823,7 @@
         <v>27</v>
       </c>
       <c r="M271" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>44.262015096799765</v>
       </c>
     </row>
@@ -11519,7 +11860,7 @@
         <v>196</v>
       </c>
       <c r="M272" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>117.91602903086482</v>
       </c>
     </row>
@@ -11556,7 +11897,7 @@
         <v>38</v>
       </c>
       <c r="M273" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>54.451275130200479</v>
       </c>
     </row>
@@ -11593,7 +11934,7 @@
         <v>323</v>
       </c>
       <c r="M274" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>267.55570438938418</v>
       </c>
     </row>
@@ -11630,7 +11971,7 @@
         <v>0</v>
       </c>
       <c r="M275" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.45872220812014142</v>
       </c>
     </row>
@@ -11667,7 +12008,7 @@
         <v>0</v>
       </c>
       <c r="M276" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.45872220812014142</v>
       </c>
     </row>
@@ -11704,7 +12045,7 @@
         <v>0</v>
       </c>
       <c r="M277" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11741,7 +12082,7 @@
         <v>0</v>
       </c>
       <c r="M278" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11778,7 +12119,7 @@
         <v>67</v>
       </c>
       <c r="M279" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>19.765807271193378</v>
       </c>
     </row>
@@ -11815,7 +12156,7 @@
         <v>25</v>
       </c>
       <c r="M280" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>26.22786290690043</v>
       </c>
     </row>
@@ -11852,7 +12193,7 @@
         <v>0</v>
       </c>
       <c r="M281" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11889,7 +12230,7 @@
         <v>25</v>
       </c>
       <c r="M282" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>25.934598067233086</v>
       </c>
     </row>
@@ -11926,7 +12267,7 @@
         <v>0</v>
       </c>
       <c r="M283" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11966,7 +12307,7 @@
         <v>1062</v>
       </c>
       <c r="M284" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1132.1169175764942</v>
       </c>
     </row>
@@ -12003,7 +12344,7 @@
         <v>0</v>
       </c>
       <c r="M285" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12040,7 +12381,7 @@
         <v>0</v>
       </c>
       <c r="M286" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12077,7 +12418,7 @@
         <v>0</v>
       </c>
       <c r="M287" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12114,7 +12455,7 @@
         <v>189</v>
       </c>
       <c r="M288" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>228.87216439856593</v>
       </c>
     </row>
@@ -12151,7 +12492,7 @@
         <v>0</v>
       </c>
       <c r="M289" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12188,7 +12529,7 @@
         <v>174</v>
       </c>
       <c r="M290" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>213.78824465845722</v>
       </c>
     </row>
@@ -12225,7 +12566,7 @@
         <v>15</v>
       </c>
       <c r="M291" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>14.927278136098668</v>
       </c>
     </row>
@@ -12262,7 +12603,7 @@
         <v>148</v>
       </c>
       <c r="M292" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>197.22130461950132</v>
       </c>
     </row>
@@ -12299,7 +12640,7 @@
         <v>0</v>
       </c>
       <c r="M293" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12336,7 +12677,7 @@
         <v>148</v>
       </c>
       <c r="M294" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>197.22130461950132</v>
       </c>
     </row>
@@ -12373,7 +12714,7 @@
         <v>279</v>
       </c>
       <c r="M295" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>258.22433768707458</v>
       </c>
     </row>
@@ -12410,7 +12751,7 @@
         <v>13</v>
       </c>
       <c r="M296" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>10.476457870172624</v>
       </c>
     </row>
@@ -12447,7 +12788,7 @@
         <v>266</v>
       </c>
       <c r="M297" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>247.59891512153476</v>
       </c>
     </row>
@@ -12484,7 +12825,7 @@
         <v>420</v>
       </c>
       <c r="M298" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>424.11196147408725</v>
       </c>
     </row>
@@ -12521,7 +12862,7 @@
         <v>14</v>
       </c>
       <c r="M299" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.6347625561592274</v>
       </c>
     </row>
@@ -12558,7 +12899,7 @@
         <v>205</v>
       </c>
       <c r="M300" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>217.44944832871383</v>
       </c>
     </row>
@@ -12595,7 +12936,7 @@
         <v>180</v>
       </c>
       <c r="M301" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>179.03439426162916</v>
       </c>
     </row>
@@ -12632,7 +12973,7 @@
         <v>21</v>
       </c>
       <c r="M302" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>18.854626717786719</v>
       </c>
     </row>
@@ -12669,7 +13010,7 @@
         <v>2</v>
       </c>
       <c r="M303" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.3219433543143204</v>
       </c>
     </row>
@@ -12706,7 +13047,7 @@
         <v>2</v>
       </c>
       <c r="M304" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.3219433543143204</v>
       </c>
     </row>
@@ -12743,7 +13084,7 @@
         <v>0</v>
       </c>
       <c r="M305" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12780,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="M306" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -12817,7 +13158,7 @@
         <v>4</v>
       </c>
       <c r="M307" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>7.2370449563502897</v>
       </c>
     </row>
@@ -12854,7 +13195,7 @@
         <v>21</v>
       </c>
       <c r="M308" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>15.557268384047948</v>
       </c>
     </row>
@@ -12891,7 +13232,7 @@
         <v>9</v>
       </c>
       <c r="M309" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>6.6097275003384954</v>
       </c>
     </row>
@@ -12928,7 +13269,7 @@
         <v>12</v>
       </c>
       <c r="M310" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>9.1041824877194752</v>
       </c>
     </row>
@@ -12965,7 +13306,7 @@
         <v>0</v>
       </c>
       <c r="M311" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -13005,7 +13346,7 @@
         <v>6034</v>
       </c>
       <c r="M312" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5126.0965033005577</v>
       </c>
     </row>
@@ -13042,7 +13383,7 @@
         <v>0</v>
       </c>
       <c r="M313" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -13079,7 +13420,7 @@
         <v>0</v>
       </c>
       <c r="M314" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -13116,7 +13457,7 @@
         <v>0</v>
       </c>
       <c r="M315" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -13153,7 +13494,7 @@
         <v>942</v>
       </c>
       <c r="M316" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1001.8813563905181</v>
       </c>
     </row>
@@ -13190,7 +13531,7 @@
         <v>43</v>
       </c>
       <c r="M317" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>41.946402264941177</v>
       </c>
     </row>
@@ -13227,7 +13568,7 @@
         <v>588</v>
       </c>
       <c r="M318" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>513.75136580060655</v>
       </c>
     </row>
@@ -13264,7 +13605,7 @@
         <v>311</v>
       </c>
       <c r="M319" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>445.88147101540341</v>
       </c>
     </row>
@@ -13301,7 +13642,7 @@
         <v>69</v>
       </c>
       <c r="M320" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>117.55298945281547</v>
       </c>
     </row>
@@ -13338,7 +13679,7 @@
         <v>2</v>
       </c>
       <c r="M321" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.57257601835915095</v>
       </c>
     </row>
@@ -13375,7 +13716,7 @@
         <v>67</v>
       </c>
       <c r="M322" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>116.98041343445631</v>
       </c>
     </row>
@@ -13412,7 +13753,7 @@
         <v>0</v>
       </c>
       <c r="M323" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -13449,7 +13790,7 @@
         <v>0</v>
       </c>
       <c r="M324" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -13486,7 +13827,7 @@
         <v>0</v>
       </c>
       <c r="M325" s="7">
-        <f t="shared" ref="M325:M388" si="6">AVERAGE(F325:L325)</f>
+        <f t="shared" ref="M325:M388" si="11">AVERAGE(F325:L325)</f>
         <v>0</v>
       </c>
     </row>
@@ -13523,7 +13864,7 @@
         <v>1925</v>
       </c>
       <c r="M326" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1325.6586422543664</v>
       </c>
     </row>
@@ -13560,7 +13901,7 @@
         <v>374</v>
       </c>
       <c r="M327" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>276.98355004732082</v>
       </c>
     </row>
@@ -13597,7 +13938,7 @@
         <v>972</v>
       </c>
       <c r="M328" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>581.09822978721934</v>
       </c>
     </row>
@@ -13634,7 +13975,7 @@
         <v>121</v>
       </c>
       <c r="M329" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>105.07038051481842</v>
       </c>
     </row>
@@ -13671,7 +14012,7 @@
         <v>459</v>
       </c>
       <c r="M330" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>362.34307052492238</v>
       </c>
     </row>
@@ -13708,7 +14049,7 @@
         <v>2959</v>
       </c>
       <c r="M331" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2571.7459357960774</v>
       </c>
     </row>
@@ -13745,7 +14086,7 @@
         <v>92</v>
       </c>
       <c r="M332" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>100.97526518492543</v>
       </c>
     </row>
@@ -13782,7 +14123,7 @@
         <v>1595</v>
       </c>
       <c r="M333" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1370.8790319558855</v>
       </c>
     </row>
@@ -13819,7 +14160,7 @@
         <v>1272</v>
       </c>
       <c r="M334" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1099.8895938160317</v>
       </c>
     </row>
@@ -13856,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="M335" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.88931036159986121</v>
       </c>
     </row>
@@ -13893,7 +14234,7 @@
         <v>138</v>
       </c>
       <c r="M336" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>108.23251508750046</v>
       </c>
     </row>
@@ -13930,7 +14271,7 @@
         <v>42</v>
       </c>
       <c r="M337" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>27.903825137835604</v>
       </c>
     </row>
@@ -13967,7 +14308,7 @@
         <v>97</v>
       </c>
       <c r="M338" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>80.327246948221855</v>
       </c>
     </row>
@@ -14004,7 +14345,7 @@
         <v>0</v>
       </c>
       <c r="M339" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14044,7 +14385,7 @@
         <v>100</v>
       </c>
       <c r="M340" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>111.87981341977995</v>
       </c>
     </row>
@@ -14081,7 +14422,7 @@
         <v>0</v>
       </c>
       <c r="M341" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14118,7 +14459,7 @@
         <v>0</v>
       </c>
       <c r="M342" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14155,7 +14496,7 @@
         <v>0</v>
       </c>
       <c r="M343" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14192,7 +14533,7 @@
         <v>25</v>
       </c>
       <c r="M344" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>24.208373755775142</v>
       </c>
     </row>
@@ -14229,7 +14570,7 @@
         <v>1</v>
       </c>
       <c r="M345" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.89048592285688877</v>
       </c>
     </row>
@@ -14266,7 +14607,7 @@
         <v>15</v>
       </c>
       <c r="M346" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>14.603684367549519</v>
       </c>
     </row>
@@ -14303,7 +14644,7 @@
         <v>9</v>
       </c>
       <c r="M347" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>8.8631681607359294</v>
       </c>
     </row>
@@ -14340,7 +14681,7 @@
         <v>21</v>
       </c>
       <c r="M348" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>29.278909017019203</v>
       </c>
     </row>
@@ -14377,7 +14718,7 @@
         <v>0</v>
       </c>
       <c r="M349" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14414,7 +14755,7 @@
         <v>21</v>
       </c>
       <c r="M350" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>29.278909017019203</v>
       </c>
     </row>
@@ -14451,7 +14792,7 @@
         <v>0</v>
       </c>
       <c r="M351" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14488,7 +14829,7 @@
         <v>0</v>
       </c>
       <c r="M352" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14525,7 +14866,7 @@
         <v>0</v>
       </c>
       <c r="M353" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14562,7 +14903,7 @@
         <v>59</v>
       </c>
       <c r="M354" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>59.236564206027388</v>
       </c>
     </row>
@@ -14599,7 +14940,7 @@
         <v>14</v>
       </c>
       <c r="M355" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>15.444973806471056</v>
       </c>
     </row>
@@ -14636,7 +14977,7 @@
         <v>21</v>
       </c>
       <c r="M356" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>24.827711738559127</v>
       </c>
     </row>
@@ -14673,7 +15014,7 @@
         <v>0</v>
       </c>
       <c r="M357" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14710,7 +15051,7 @@
         <v>24</v>
       </c>
       <c r="M358" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>18.808412618244201</v>
       </c>
     </row>
@@ -14747,7 +15088,7 @@
         <v>0</v>
       </c>
       <c r="M359" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14784,7 +15125,7 @@
         <v>0</v>
       </c>
       <c r="M360" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14821,7 +15162,7 @@
         <v>0</v>
       </c>
       <c r="M361" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14858,7 +15199,7 @@
         <v>0</v>
       </c>
       <c r="M362" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14895,7 +15236,7 @@
         <v>0</v>
       </c>
       <c r="M363" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14932,7 +15273,7 @@
         <v>-4</v>
       </c>
       <c r="M364" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-0.69768742637460512</v>
       </c>
     </row>
@@ -14969,7 +15310,7 @@
         <v>1</v>
       </c>
       <c r="M365" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.1782169334794657</v>
       </c>
     </row>
@@ -15006,7 +15347,7 @@
         <v>-6</v>
       </c>
       <c r="M366" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-2.1642372082683861</v>
       </c>
     </row>
@@ -15043,7 +15384,7 @@
         <v>0</v>
       </c>
       <c r="M367" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -15083,7 +15424,7 @@
         <v>5681</v>
       </c>
       <c r="M368" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5148.2738143116831</v>
       </c>
     </row>
@@ -15120,7 +15461,7 @@
         <v>0</v>
       </c>
       <c r="M369" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>9.4295330053967792</v>
       </c>
     </row>
@@ -15157,7 +15498,7 @@
         <v>0</v>
       </c>
       <c r="M370" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -15194,7 +15535,7 @@
         <v>0</v>
       </c>
       <c r="M371" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>9.4295330053967792</v>
       </c>
     </row>
@@ -15231,7 +15572,7 @@
         <v>839</v>
       </c>
       <c r="M372" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1100.130412964357</v>
       </c>
     </row>
@@ -15268,7 +15609,7 @@
         <v>0</v>
       </c>
       <c r="M373" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -15305,7 +15646,7 @@
         <v>232</v>
       </c>
       <c r="M374" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>430.74009118812904</v>
       </c>
     </row>
@@ -15342,7 +15683,7 @@
         <v>607</v>
       </c>
       <c r="M375" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>669.37798031651823</v>
       </c>
     </row>
@@ -15379,7 +15720,7 @@
         <v>1691</v>
       </c>
       <c r="M376" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1565.5892791185067</v>
       </c>
     </row>
@@ -15416,7 +15757,7 @@
         <v>131</v>
       </c>
       <c r="M377" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>136.09694464407991</v>
       </c>
     </row>
@@ -15453,7 +15794,7 @@
         <v>1560</v>
       </c>
       <c r="M378" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1429.495860169694</v>
       </c>
     </row>
@@ -15490,7 +15831,7 @@
         <v>595</v>
       </c>
       <c r="M379" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>630.68985150203628</v>
       </c>
     </row>
@@ -15527,7 +15868,7 @@
         <v>371</v>
       </c>
       <c r="M380" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>352.73563850567058</v>
       </c>
     </row>
@@ -15564,7 +15905,7 @@
         <v>224</v>
       </c>
       <c r="M381" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>277.81845903868606</v>
       </c>
     </row>
@@ -15601,7 +15942,7 @@
         <v>2030</v>
       </c>
       <c r="M382" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1310.5593320880923</v>
       </c>
     </row>
@@ -15638,7 +15979,7 @@
         <v>1320</v>
       </c>
       <c r="M383" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>719.70468634779616</v>
       </c>
     </row>
@@ -15675,7 +16016,7 @@
         <v>633</v>
       </c>
       <c r="M384" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>535.91137733850178</v>
       </c>
     </row>
@@ -15712,7 +16053,7 @@
         <v>13</v>
       </c>
       <c r="M385" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>14.637144047690404</v>
       </c>
     </row>
@@ -15749,7 +16090,7 @@
         <v>64</v>
       </c>
       <c r="M386" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>40.311658183148886</v>
       </c>
     </row>
@@ -15786,7 +16127,7 @@
         <v>42</v>
       </c>
       <c r="M387" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>30.687463449969243</v>
       </c>
     </row>
@@ -15823,7 +16164,7 @@
         <v>3</v>
       </c>
       <c r="M388" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.0043397330958983</v>
       </c>
     </row>
@@ -15860,7 +16201,7 @@
         <v>39</v>
       </c>
       <c r="M389" s="7">
-        <f t="shared" ref="M389:M452" si="7">AVERAGE(F389:L389)</f>
+        <f t="shared" ref="M389:M452" si="12">AVERAGE(F389:L389)</f>
         <v>29.683123716873347</v>
       </c>
     </row>
@@ -15897,7 +16238,7 @@
         <v>0</v>
       </c>
       <c r="M390" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -15934,7 +16275,7 @@
         <v>404</v>
       </c>
       <c r="M391" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>424.89596085068712</v>
       </c>
     </row>
@@ -15971,7 +16312,7 @@
         <v>78</v>
       </c>
       <c r="M392" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>76.28867227141798</v>
       </c>
     </row>
@@ -16008,7 +16349,7 @@
         <v>51</v>
       </c>
       <c r="M393" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>42.049698748684463</v>
       </c>
     </row>
@@ -16045,7 +16386,7 @@
         <v>27</v>
       </c>
       <c r="M394" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>34.238973522733502</v>
       </c>
     </row>
@@ -16082,7 +16423,7 @@
         <v>0</v>
       </c>
       <c r="M395" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -16125,7 +16466,7 @@
         <v>30698</v>
       </c>
       <c r="M396" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>27076.867377919629</v>
       </c>
     </row>
@@ -16162,7 +16503,7 @@
         <v>0</v>
       </c>
       <c r="M397" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>9.4295330053967792</v>
       </c>
     </row>
@@ -16199,7 +16540,7 @@
         <v>0</v>
       </c>
       <c r="M398" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -16236,7 +16577,7 @@
         <v>0</v>
       </c>
       <c r="M399" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>9.4295330053967792</v>
       </c>
     </row>
@@ -16273,7 +16614,7 @@
         <v>2683</v>
       </c>
       <c r="M400" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>3285.7186533712634</v>
       </c>
     </row>
@@ -16310,7 +16651,7 @@
         <v>70</v>
       </c>
       <c r="M401" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>66.881373931253179</v>
       </c>
     </row>
@@ -16347,7 +16688,7 @@
         <v>1485</v>
       </c>
       <c r="M402" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1647.1090447891868</v>
       </c>
     </row>
@@ -16384,7 +16725,7 @@
         <v>1128</v>
       </c>
       <c r="M403" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1571.4358390891339</v>
       </c>
     </row>
@@ -16421,7 +16762,7 @@
         <v>4584</v>
       </c>
       <c r="M404" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>4635.7627301114726</v>
       </c>
     </row>
@@ -16458,7 +16799,7 @@
         <v>228</v>
       </c>
       <c r="M405" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>295.13148941235016</v>
       </c>
     </row>
@@ -16495,7 +16836,7 @@
         <v>4356</v>
       </c>
       <c r="M406" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>4340.4878098327999</v>
       </c>
     </row>
@@ -16532,7 +16873,7 @@
         <v>6112</v>
       </c>
       <c r="M407" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>5981.4339518850156</v>
       </c>
     </row>
@@ -16569,7 +16910,7 @@
         <v>1546</v>
       </c>
       <c r="M408" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1384.4230327602838</v>
       </c>
     </row>
@@ -16606,7 +16947,7 @@
         <v>4566</v>
       </c>
       <c r="M409" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>4597.4441258409115</v>
       </c>
     </row>
@@ -16643,7 +16984,7 @@
         <v>12137</v>
       </c>
       <c r="M410" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>8472.089791679191</v>
       </c>
     </row>
@@ -16680,7 +17021,7 @@
         <v>2372</v>
       </c>
       <c r="M411" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1490.7578433009396</v>
       </c>
     </row>
@@ -16717,7 +17058,7 @@
         <v>7508</v>
       </c>
       <c r="M412" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>5104.2093330291191</v>
       </c>
     </row>
@@ -16754,7 +17095,7 @@
         <v>330</v>
       </c>
       <c r="M413" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>337.33832501884797</v>
       </c>
     </row>
@@ -16791,7 +17132,7 @@
         <v>1926</v>
       </c>
       <c r="M414" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1539.9415056577607</v>
       </c>
     </row>
@@ -16828,7 +17169,7 @@
         <v>3019</v>
       </c>
       <c r="M415" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2620.316510815027</v>
       </c>
     </row>
@@ -16865,7 +17206,7 @@
         <v>113</v>
       </c>
       <c r="M416" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>119.56268072212571</v>
       </c>
     </row>
@@ -16902,7 +17243,7 @@
         <v>1634</v>
       </c>
       <c r="M417" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1400.562155672759</v>
       </c>
     </row>
@@ -16939,7 +17280,7 @@
         <v>1272</v>
       </c>
       <c r="M418" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1099.8895938160317</v>
       </c>
     </row>
@@ -16976,7 +17317,7 @@
         <v>629</v>
       </c>
       <c r="M419" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>623.76465429585073</v>
       </c>
     </row>
@@ -17013,7 +17354,7 @@
         <v>1534</v>
       </c>
       <c r="M420" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1448.3459822219063</v>
       </c>
     </row>
@@ -17050,7 +17391,7 @@
         <v>137</v>
       </c>
       <c r="M421" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>105.63296268931923</v>
       </c>
     </row>
@@ -17087,7 +17428,7 @@
         <v>1397</v>
       </c>
       <c r="M422" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1342.8619842279543</v>
       </c>
     </row>
@@ -17124,7 +17465,7 @@
         <v>697</v>
       </c>
       <c r="M423" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>528.52331866040367</v>
       </c>
     </row>
@@ -17164,7 +17505,7 @@
         <v>9122</v>
       </c>
       <c r="M424" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>6777.7924228373031</v>
       </c>
     </row>
@@ -17201,7 +17542,7 @@
         <v>0</v>
       </c>
       <c r="M425" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -17238,7 +17579,7 @@
         <v>0</v>
       </c>
       <c r="M426" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -17275,7 +17616,7 @@
         <v>0</v>
       </c>
       <c r="M427" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -17312,7 +17653,7 @@
         <v>0</v>
       </c>
       <c r="M428" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -17349,7 +17690,7 @@
         <v>0</v>
       </c>
       <c r="M429" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -17386,7 +17727,7 @@
         <v>0</v>
       </c>
       <c r="M430" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -17423,7 +17764,7 @@
         <v>0</v>
       </c>
       <c r="M431" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -17460,7 +17801,7 @@
         <v>192</v>
       </c>
       <c r="M432" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>188.67008373785757</v>
       </c>
     </row>
@@ -17497,7 +17838,7 @@
         <v>2</v>
       </c>
       <c r="M433" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.7501911140468789</v>
       </c>
     </row>
@@ -17534,7 +17875,7 @@
         <v>191</v>
       </c>
       <c r="M434" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>186.77297391681051</v>
       </c>
     </row>
@@ -17571,7 +17912,7 @@
         <v>2178</v>
       </c>
       <c r="M435" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2036.5047611195619</v>
       </c>
     </row>
@@ -17608,7 +17949,7 @@
         <v>1032</v>
       </c>
       <c r="M436" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>877.56453296234974</v>
       </c>
     </row>
@@ -17645,7 +17986,7 @@
         <v>1146</v>
       </c>
       <c r="M437" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1158.7959280129119</v>
       </c>
     </row>
@@ -17682,7 +18023,7 @@
         <v>6372</v>
       </c>
       <c r="M438" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>4255.2974215057484</v>
       </c>
     </row>
@@ -17719,7 +18060,7 @@
         <v>1974</v>
       </c>
       <c r="M439" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1187.9891800424</v>
       </c>
     </row>
@@ -17756,7 +18097,7 @@
         <v>4275</v>
       </c>
       <c r="M440" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2920.9144574705469</v>
       </c>
     </row>
@@ -17793,7 +18134,7 @@
         <v>123</v>
       </c>
       <c r="M441" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>146.53721485912305</v>
       </c>
     </row>
@@ -17830,7 +18171,7 @@
         <v>0</v>
       </c>
       <c r="M442" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -17867,7 +18208,7 @@
         <v>0</v>
       </c>
       <c r="M443" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -17904,7 +18245,7 @@
         <v>0</v>
       </c>
       <c r="M444" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -17941,7 +18282,7 @@
         <v>0</v>
       </c>
       <c r="M445" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -17978,7 +18319,7 @@
         <v>0</v>
       </c>
       <c r="M446" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -18015,7 +18356,7 @@
         <v>43</v>
       </c>
       <c r="M447" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>43.175708866787438</v>
       </c>
     </row>
@@ -18052,7 +18393,7 @@
         <v>337</v>
       </c>
       <c r="M448" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>254.29289896502476</v>
       </c>
     </row>
@@ -18089,7 +18430,7 @@
         <v>74</v>
       </c>
       <c r="M449" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>57.671943240767185</v>
       </c>
     </row>
@@ -18126,7 +18467,7 @@
         <v>264</v>
       </c>
       <c r="M450" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>196.61069695837179</v>
       </c>
     </row>
@@ -18163,7 +18504,7 @@
         <v>-2425</v>
       </c>
       <c r="M451" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-1932.571822528324</v>
       </c>
     </row>
@@ -18203,7 +18544,7 @@
         <v>17516</v>
       </c>
       <c r="M452" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>16172.396596183908</v>
       </c>
     </row>
@@ -18240,7 +18581,7 @@
         <v>0</v>
       </c>
       <c r="M453" s="7">
-        <f t="shared" ref="M453:M516" si="8">AVERAGE(F453:L453)</f>
+        <f t="shared" ref="M453:M516" si="13">AVERAGE(F453:L453)</f>
         <v>9.4295330053967792</v>
       </c>
     </row>
@@ -18277,7 +18618,7 @@
         <v>0</v>
       </c>
       <c r="M454" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -18314,7 +18655,7 @@
         <v>0</v>
       </c>
       <c r="M455" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>9.4295330053967792</v>
       </c>
     </row>
@@ -18351,7 +18692,7 @@
         <v>2667</v>
       </c>
       <c r="M456" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>3270.0672159587384</v>
       </c>
     </row>
@@ -18388,7 +18729,7 @@
         <v>70</v>
       </c>
       <c r="M457" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>66.881373931253179</v>
       </c>
     </row>
@@ -18425,7 +18766,7 @@
         <v>1485</v>
       </c>
       <c r="M458" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1647.1090447891868</v>
       </c>
     </row>
@@ -18462,7 +18803,7 @@
         <v>1111</v>
       </c>
       <c r="M459" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1555.6415445337518</v>
       </c>
     </row>
@@ -18499,7 +18840,7 @@
         <v>3573</v>
       </c>
       <c r="M460" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>3582.9681389485245</v>
       </c>
     </row>
@@ -18536,7 +18877,7 @@
         <v>196</v>
       </c>
       <c r="M461" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>259.79086994828333</v>
       </c>
     </row>
@@ -18573,7 +18914,7 @@
         <v>3376</v>
       </c>
       <c r="M462" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>3323.3330034716842</v>
       </c>
     </row>
@@ -18610,7 +18951,7 @@
         <v>1258</v>
       </c>
       <c r="M463" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1177.5742027472927</v>
       </c>
     </row>
@@ -18647,7 +18988,7 @@
         <v>407</v>
       </c>
       <c r="M464" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>375.19261788206171</v>
       </c>
     </row>
@@ -18684,7 +19025,7 @@
         <v>851</v>
       </c>
       <c r="M465" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>802.38158486523093</v>
       </c>
     </row>
@@ -18721,7 +19062,7 @@
         <v>5765</v>
       </c>
       <c r="M466" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>4216.6434054780775</v>
       </c>
     </row>
@@ -18758,7 +19099,7 @@
         <v>398</v>
       </c>
       <c r="M467" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>302.62318755298213</v>
       </c>
     </row>
@@ -18795,7 +19136,7 @@
         <v>3233</v>
       </c>
       <c r="M468" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2183.1382339545626</v>
       </c>
     </row>
@@ -18832,7 +19173,7 @@
         <v>207</v>
       </c>
       <c r="M469" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>190.80111015972486</v>
       </c>
     </row>
@@ -18869,7 +19210,7 @@
         <v>1926</v>
       </c>
       <c r="M470" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1539.9415056577607</v>
       </c>
     </row>
@@ -18906,7 +19247,7 @@
         <v>3019</v>
       </c>
       <c r="M471" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2620.316510815027</v>
       </c>
     </row>
@@ -18943,7 +19284,7 @@
         <v>113</v>
       </c>
       <c r="M472" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>119.56268072212571</v>
       </c>
     </row>
@@ -18980,7 +19321,7 @@
         <v>1634</v>
       </c>
       <c r="M473" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1400.562155672759</v>
       </c>
     </row>
@@ -19017,7 +19358,7 @@
         <v>1272</v>
       </c>
       <c r="M474" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1099.8895938160317</v>
       </c>
     </row>
@@ -19054,7 +19395,7 @@
         <v>582</v>
       </c>
       <c r="M475" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>575.13670069638601</v>
       </c>
     </row>
@@ -19091,7 +19432,7 @@
         <v>652</v>
       </c>
       <c r="M476" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>720.10773592026476</v>
       </c>
     </row>
@@ -19128,7 +19469,7 @@
         <v>12</v>
       </c>
       <c r="M477" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>11.229263389798474</v>
       </c>
     </row>
@@ -19165,7 +19506,7 @@
         <v>640</v>
       </c>
       <c r="M478" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>708.88262374384215</v>
       </c>
     </row>
@@ -19202,7 +19543,7 @@
         <v>-15</v>
       </c>
       <c r="M479" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>217.84512132097166</v>
       </c>
     </row>
@@ -19242,7 +19583,7 @@
         <v>497</v>
       </c>
       <c r="M480" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>584.41675405373815</v>
       </c>
     </row>
@@ -19279,7 +19620,7 @@
         <v>0</v>
       </c>
       <c r="M481" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>9.4295330053967792</v>
       </c>
     </row>
@@ -19316,7 +19657,7 @@
         <v>0</v>
       </c>
       <c r="M482" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -19353,7 +19694,7 @@
         <v>0</v>
       </c>
       <c r="M483" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>9.4295330053967792</v>
       </c>
     </row>
@@ -19390,7 +19731,7 @@
         <v>327</v>
       </c>
       <c r="M484" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>347.48350840992754</v>
       </c>
     </row>
@@ -19427,7 +19768,7 @@
         <v>70</v>
       </c>
       <c r="M485" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>66.881373931253179</v>
       </c>
     </row>
@@ -19464,7 +19805,7 @@
         <v>241</v>
       </c>
       <c r="M486" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>267.79281048547949</v>
       </c>
     </row>
@@ -19501,7 +19842,7 @@
         <v>16</v>
       </c>
       <c r="M487" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>12.809323993194866</v>
       </c>
     </row>
@@ -19538,7 +19879,7 @@
         <v>94</v>
       </c>
       <c r="M488" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>151.0790102173714</v>
       </c>
     </row>
@@ -19575,7 +19916,7 @@
         <v>94</v>
       </c>
       <c r="M489" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>151.0790102173714</v>
       </c>
     </row>
@@ -19612,7 +19953,7 @@
         <v>0</v>
       </c>
       <c r="M490" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -19649,7 +19990,7 @@
         <v>0</v>
       </c>
       <c r="M491" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -19686,7 +20027,7 @@
         <v>0</v>
       </c>
       <c r="M492" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -19723,7 +20064,7 @@
         <v>0</v>
       </c>
       <c r="M493" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -19760,7 +20101,7 @@
         <v>72</v>
       </c>
       <c r="M494" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>71.652933994061527</v>
       </c>
     </row>
@@ -19797,7 +20138,7 @@
         <v>0</v>
       </c>
       <c r="M495" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -19834,7 +20175,7 @@
         <v>0</v>
       </c>
       <c r="M496" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -19871,7 +20212,7 @@
         <v>72</v>
       </c>
       <c r="M497" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>71.652933994061527</v>
       </c>
     </row>
@@ -19908,7 +20249,7 @@
         <v>0</v>
       </c>
       <c r="M498" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -19945,7 +20286,7 @@
         <v>0</v>
       </c>
       <c r="M499" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -19982,7 +20323,7 @@
         <v>0</v>
       </c>
       <c r="M500" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -20019,7 +20360,7 @@
         <v>0</v>
       </c>
       <c r="M501" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -20056,7 +20397,7 @@
         <v>0</v>
       </c>
       <c r="M502" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -20093,7 +20434,7 @@
         <v>2</v>
       </c>
       <c r="M503" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>4.4825284459995709</v>
       </c>
     </row>
@@ -20130,7 +20471,7 @@
         <v>3</v>
       </c>
       <c r="M504" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.71543316121629374</v>
       </c>
     </row>
@@ -20167,7 +20508,7 @@
         <v>0</v>
       </c>
       <c r="M505" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -20204,7 +20545,7 @@
         <v>3</v>
       </c>
       <c r="M506" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.71543316121629374</v>
       </c>
     </row>
@@ -20241,7 +20582,7 @@
         <v>-21</v>
       </c>
       <c r="M507" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-16.67506217775837</v>
       </c>
     </row>
@@ -20281,7 +20622,7 @@
         <v>7515</v>
       </c>
       <c r="M508" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>7961.4034285926218</v>
       </c>
     </row>
@@ -20318,7 +20659,7 @@
         <v>0</v>
       </c>
       <c r="M509" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -20355,7 +20696,7 @@
         <v>0</v>
       </c>
       <c r="M510" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -20392,7 +20733,7 @@
         <v>0</v>
       </c>
       <c r="M511" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -20429,7 +20770,7 @@
         <v>2294</v>
       </c>
       <c r="M512" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2865.1511730681354</v>
       </c>
     </row>
@@ -20466,7 +20807,7 @@
         <v>0</v>
       </c>
       <c r="M513" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -20503,7 +20844,7 @@
         <v>1245</v>
       </c>
       <c r="M514" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1379.7514870082539</v>
       </c>
     </row>
@@ -20540,7 +20881,7 @@
         <v>1049</v>
       </c>
       <c r="M515" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1485.6920816215718</v>
       </c>
     </row>
@@ -20577,7 +20918,7 @@
         <v>3441</v>
       </c>
       <c r="M516" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>3419.1710673086568</v>
       </c>
     </row>
@@ -20614,7 +20955,7 @@
         <v>101</v>
       </c>
       <c r="M517" s="7">
-        <f t="shared" ref="M517:M580" si="9">AVERAGE(F517:L517)</f>
+        <f t="shared" ref="M517:M580" si="14">AVERAGE(F517:L517)</f>
         <v>108.42557172173238</v>
       </c>
     </row>
@@ -20651,7 +20992,7 @@
         <v>3340</v>
       </c>
       <c r="M518" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3311.1954020306016</v>
       </c>
     </row>
@@ -20688,7 +21029,7 @@
         <v>701</v>
       </c>
       <c r="M519" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>622.49417465571207</v>
       </c>
     </row>
@@ -20725,7 +21066,7 @@
         <v>0</v>
       </c>
       <c r="M520" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -20762,7 +21103,7 @@
         <v>701</v>
       </c>
       <c r="M521" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>622.49417465571207</v>
       </c>
     </row>
@@ -20799,7 +21140,7 @@
         <v>432</v>
       </c>
       <c r="M522" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>347.46588975183761</v>
       </c>
     </row>
@@ -20836,7 +21177,7 @@
         <v>251</v>
       </c>
       <c r="M523" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>170.26536991203648</v>
       </c>
     </row>
@@ -20873,7 +21214,7 @@
         <v>181</v>
       </c>
       <c r="M524" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>177.49029568965844</v>
       </c>
     </row>
@@ -20910,7 +21251,7 @@
         <v>0</v>
       </c>
       <c r="M525" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -20947,7 +21288,7 @@
         <v>0</v>
       </c>
       <c r="M526" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -20984,7 +21325,7 @@
         <v>0</v>
       </c>
       <c r="M527" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -21021,7 +21362,7 @@
         <v>0</v>
       </c>
       <c r="M528" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -21058,7 +21399,7 @@
         <v>0</v>
       </c>
       <c r="M529" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -21095,7 +21436,7 @@
         <v>0</v>
       </c>
       <c r="M530" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -21132,7 +21473,7 @@
         <v>484</v>
       </c>
       <c r="M531" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>512.38711739290216</v>
       </c>
     </row>
@@ -21169,7 +21510,7 @@
         <v>164</v>
       </c>
       <c r="M532" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>194.88654860065495</v>
       </c>
     </row>
@@ -21206,7 +21547,7 @@
         <v>3</v>
       </c>
       <c r="M533" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1.8736672826678471</v>
       </c>
     </row>
@@ -21243,7 +21584,7 @@
         <v>161</v>
       </c>
       <c r="M534" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>192.86945045166468</v>
       </c>
     </row>
@@ -21280,7 +21621,7 @@
         <v>177</v>
       </c>
       <c r="M535" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>150.82112328621491</v>
       </c>
     </row>
@@ -21320,7 +21661,7 @@
         <v>2039</v>
       </c>
       <c r="M536" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1631.436344110675</v>
       </c>
     </row>
@@ -21357,7 +21698,7 @@
         <v>0</v>
       </c>
       <c r="M537" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -21394,7 +21735,7 @@
         <v>0</v>
       </c>
       <c r="M538" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -21431,7 +21772,7 @@
         <v>0</v>
       </c>
       <c r="M539" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -21468,7 +21809,7 @@
         <v>0</v>
       </c>
       <c r="M540" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -21505,7 +21846,7 @@
         <v>0</v>
       </c>
       <c r="M541" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -21542,7 +21883,7 @@
         <v>0</v>
       </c>
       <c r="M542" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -21579,7 +21920,7 @@
         <v>0</v>
       </c>
       <c r="M543" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -21616,7 +21957,7 @@
         <v>0</v>
       </c>
       <c r="M544" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -21653,7 +21994,7 @@
         <v>0</v>
       </c>
       <c r="M545" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -21690,7 +22031,7 @@
         <v>0</v>
       </c>
       <c r="M546" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -21727,7 +22068,7 @@
         <v>100</v>
       </c>
       <c r="M547" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>81.732589010909152</v>
       </c>
     </row>
@@ -21764,7 +22105,7 @@
         <v>99</v>
       </c>
       <c r="M548" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>81.44630100172958</v>
       </c>
     </row>
@@ -21801,7 +22142,7 @@
         <v>1</v>
       </c>
       <c r="M549" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.43058815347971979</v>
       </c>
     </row>
@@ -21838,7 +22179,7 @@
         <v>1926</v>
       </c>
       <c r="M550" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1539.9415056577607</v>
       </c>
     </row>
@@ -21875,7 +22216,7 @@
         <v>0</v>
       </c>
       <c r="M551" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -21912,7 +22253,7 @@
         <v>0</v>
       </c>
       <c r="M552" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -21949,7 +22290,7 @@
         <v>0</v>
       </c>
       <c r="M553" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -21986,7 +22327,7 @@
         <v>1926</v>
       </c>
       <c r="M554" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1539.9415056577607</v>
       </c>
     </row>
@@ -22023,7 +22364,7 @@
         <v>0</v>
       </c>
       <c r="M555" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -22060,7 +22401,7 @@
         <v>0</v>
       </c>
       <c r="M556" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -22097,7 +22438,7 @@
         <v>0</v>
       </c>
       <c r="M557" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -22134,7 +22475,7 @@
         <v>0</v>
       </c>
       <c r="M558" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -22171,7 +22512,7 @@
         <v>13</v>
       </c>
       <c r="M559" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>9.4683223787721236</v>
       </c>
     </row>
@@ -22208,7 +22549,7 @@
         <v>0</v>
       </c>
       <c r="M560" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -22245,7 +22586,7 @@
         <v>0</v>
       </c>
       <c r="M561" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -22282,7 +22623,7 @@
         <v>0</v>
       </c>
       <c r="M562" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -22319,7 +22660,7 @@
         <v>39</v>
       </c>
       <c r="M563" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>7.8262800515229145</v>
       </c>
     </row>
@@ -22359,7 +22700,7 @@
         <v>3784</v>
       </c>
       <c r="M564" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2751.2197695542427</v>
       </c>
     </row>
@@ -22396,7 +22737,7 @@
         <v>0</v>
       </c>
       <c r="M565" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -22433,7 +22774,7 @@
         <v>0</v>
       </c>
       <c r="M566" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -22470,7 +22811,7 @@
         <v>0</v>
       </c>
       <c r="M567" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -22507,7 +22848,7 @@
         <v>47</v>
       </c>
       <c r="M568" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>57.712677082755128</v>
       </c>
     </row>
@@ -22544,7 +22885,7 @@
         <v>0</v>
       </c>
       <c r="M569" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -22581,7 +22922,7 @@
         <v>0</v>
       </c>
       <c r="M570" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -22618,7 +22959,7 @@
         <v>47</v>
       </c>
       <c r="M571" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>57.712677082755128</v>
       </c>
     </row>
@@ -22655,7 +22996,7 @@
         <v>32</v>
       </c>
       <c r="M572" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>11.433907901784455</v>
       </c>
     </row>
@@ -22692,7 +23033,7 @@
         <v>2</v>
       </c>
       <c r="M573" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.42914515203671832</v>
       </c>
     </row>
@@ -22729,7 +23070,7 @@
         <v>30</v>
       </c>
       <c r="M574" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>11.004762749747737</v>
       </c>
     </row>
@@ -22766,7 +23107,7 @@
         <v>228</v>
       </c>
       <c r="M575" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>256.6866263878818</v>
       </c>
     </row>
@@ -22803,7 +23144,7 @@
         <v>111</v>
       </c>
       <c r="M576" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>97.51407037454139</v>
       </c>
     </row>
@@ -22840,7 +23181,7 @@
         <v>118</v>
       </c>
       <c r="M577" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>159.31541315619756</v>
       </c>
     </row>
@@ -22877,7 +23218,7 @@
         <v>3054</v>
       </c>
       <c r="M578" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2027.2558590896647</v>
       </c>
     </row>
@@ -22914,7 +23255,7 @@
         <v>147</v>
       </c>
       <c r="M579" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>132.51093354968862</v>
       </c>
     </row>
@@ -22951,7 +23292,7 @@
         <v>2866</v>
       </c>
       <c r="M580" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1862.3575697063563</v>
       </c>
     </row>
@@ -22988,7 +23329,7 @@
         <v>41</v>
       </c>
       <c r="M581" s="7">
-        <f t="shared" ref="M581:M644" si="10">AVERAGE(F581:L581)</f>
+        <f t="shared" ref="M581:M644" si="15">AVERAGE(F581:L581)</f>
         <v>32.250695892505242</v>
       </c>
     </row>
@@ -23025,7 +23366,7 @@
         <v>0</v>
       </c>
       <c r="M582" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -23062,7 +23403,7 @@
         <v>0</v>
       </c>
       <c r="M583" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -23099,7 +23440,7 @@
         <v>0</v>
       </c>
       <c r="M584" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -23136,7 +23477,7 @@
         <v>0</v>
       </c>
       <c r="M585" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -23173,7 +23514,7 @@
         <v>0</v>
       </c>
       <c r="M586" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -23210,7 +23551,7 @@
         <v>3</v>
       </c>
       <c r="M587" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>4.5767199813625137</v>
       </c>
     </row>
@@ -23247,7 +23588,7 @@
         <v>419</v>
       </c>
       <c r="M588" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>394.15056050160302</v>
       </c>
     </row>
@@ -23284,7 +23625,7 @@
         <v>9</v>
       </c>
       <c r="M589" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>8.922389390950876</v>
       </c>
     </row>
@@ -23321,7 +23662,7 @@
         <v>411</v>
       </c>
       <c r="M590" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>385.51650395906643</v>
       </c>
     </row>
@@ -23358,7 +23699,7 @@
         <v>-181</v>
       </c>
       <c r="M591" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>114.29531091825733</v>
       </c>
     </row>
@@ -23398,7 +23739,7 @@
         <v>34</v>
       </c>
       <c r="M592" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>25.344892346105674</v>
       </c>
     </row>
@@ -23435,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="M593" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -23472,7 +23813,7 @@
         <v>0</v>
       </c>
       <c r="M594" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -23509,7 +23850,7 @@
         <v>0</v>
       </c>
       <c r="M595" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -23546,7 +23887,7 @@
         <v>0</v>
       </c>
       <c r="M596" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -23583,7 +23924,7 @@
         <v>0</v>
       </c>
       <c r="M597" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -23620,7 +23961,7 @@
         <v>0</v>
       </c>
       <c r="M598" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -23657,7 +23998,7 @@
         <v>0</v>
       </c>
       <c r="M599" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -23694,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="M600" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -23731,7 +24072,7 @@
         <v>0</v>
       </c>
       <c r="M601" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -23768,7 +24109,7 @@
         <v>0</v>
       </c>
       <c r="M602" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -23805,7 +24146,7 @@
         <v>17</v>
       </c>
       <c r="M603" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>9.7380816613066479</v>
       </c>
     </row>
@@ -23842,7 +24183,7 @@
         <v>5</v>
       </c>
       <c r="M604" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>5.8970248905420704</v>
       </c>
     </row>
@@ -23879,7 +24220,7 @@
         <v>12</v>
       </c>
       <c r="M605" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3.9865324763217491</v>
       </c>
     </row>
@@ -23916,7 +24257,7 @@
         <v>2</v>
       </c>
       <c r="M606" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2.9870165505543489</v>
       </c>
     </row>
@@ -23953,7 +24294,7 @@
         <v>0</v>
       </c>
       <c r="M607" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -23990,7 +24331,7 @@
         <v>2</v>
       </c>
       <c r="M608" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2.9870165505543489</v>
       </c>
     </row>
@@ -24027,7 +24368,7 @@
         <v>0</v>
       </c>
       <c r="M609" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -24064,7 +24405,7 @@
         <v>0</v>
       </c>
       <c r="M610" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -24101,7 +24442,7 @@
         <v>0</v>
       </c>
       <c r="M611" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -24138,7 +24479,7 @@
         <v>0</v>
       </c>
       <c r="M612" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -24175,7 +24516,7 @@
         <v>0</v>
       </c>
       <c r="M613" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -24212,7 +24553,7 @@
         <v>0</v>
       </c>
       <c r="M614" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -24249,7 +24590,7 @@
         <v>12</v>
       </c>
       <c r="M615" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3.5788869764773383</v>
       </c>
     </row>
@@ -24286,7 +24627,7 @@
         <v>4</v>
       </c>
       <c r="M616" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>8.8781580012472574</v>
       </c>
     </row>
@@ -24323,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="M617" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -24360,7 +24701,7 @@
         <v>4</v>
       </c>
       <c r="M618" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>8.8781580012472574</v>
       </c>
     </row>
@@ -24397,7 +24738,7 @@
         <v>-1</v>
       </c>
       <c r="M619" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3.4904662842620087</v>
       </c>
     </row>
@@ -24437,7 +24778,7 @@
         <v>2202</v>
       </c>
       <c r="M620" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1876.7198831446278</v>
       </c>
     </row>
@@ -24474,7 +24815,7 @@
         <v>0</v>
       </c>
       <c r="M621" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -24511,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="M622" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -24548,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="M623" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -24585,7 +24926,7 @@
         <v>0</v>
       </c>
       <c r="M624" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -24622,7 +24963,7 @@
         <v>0</v>
       </c>
       <c r="M625" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -24659,7 +25000,7 @@
         <v>0</v>
       </c>
       <c r="M626" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -24696,7 +25037,7 @@
         <v>0</v>
       </c>
       <c r="M627" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -24733,7 +25074,7 @@
         <v>6</v>
       </c>
       <c r="M628" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.1440045897877222</v>
       </c>
     </row>
@@ -24770,7 +25111,7 @@
         <v>0</v>
       </c>
       <c r="M629" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -24807,7 +25148,7 @@
         <v>6</v>
       </c>
       <c r="M630" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.1440045897877222</v>
       </c>
     </row>
@@ -24844,7 +25185,7 @@
         <v>182</v>
       </c>
       <c r="M631" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>89.704315253969838</v>
       </c>
     </row>
@@ -24881,7 +25222,7 @@
         <v>164</v>
       </c>
       <c r="M632" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>75.591155079076458</v>
       </c>
     </row>
@@ -24918,7 +25259,7 @@
         <v>18</v>
       </c>
       <c r="M633" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>14.113160174893363</v>
       </c>
     </row>
@@ -24955,7 +25296,7 @@
         <v>195</v>
       </c>
       <c r="M634" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>150.9375006887432</v>
       </c>
     </row>
@@ -24992,7 +25333,7 @@
         <v>0</v>
       </c>
       <c r="M635" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -25029,7 +25370,7 @@
         <v>184</v>
       </c>
       <c r="M636" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>140.59225857987286</v>
       </c>
     </row>
@@ -25066,7 +25407,7 @@
         <v>11</v>
       </c>
       <c r="M637" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>10.044300360560133</v>
       </c>
     </row>
@@ -25103,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="M638" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -25140,7 +25481,7 @@
         <v>1747</v>
       </c>
       <c r="M639" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1519.6625884914974</v>
       </c>
     </row>
@@ -25177,7 +25518,7 @@
         <v>113</v>
       </c>
       <c r="M640" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>119.10395851400556</v>
       </c>
     </row>
@@ -25214,7 +25555,7 @@
         <v>1634</v>
       </c>
       <c r="M641" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1400.562155672759</v>
       </c>
     </row>
@@ -25251,7 +25592,7 @@
         <v>0</v>
       </c>
       <c r="M642" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -25288,7 +25629,7 @@
         <v>27</v>
       </c>
       <c r="M643" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>31.192337932009</v>
       </c>
     </row>
@@ -25325,7 +25666,7 @@
         <v>45</v>
       </c>
       <c r="M644" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>84.074471637553387</v>
       </c>
     </row>
@@ -25362,7 +25703,7 @@
         <v>0</v>
       </c>
       <c r="M645" s="7">
-        <f t="shared" ref="M645:M708" si="11">AVERAGE(F645:L645)</f>
+        <f t="shared" ref="M645:M708" si="16">AVERAGE(F645:L645)</f>
         <v>0.28977584985731625</v>
       </c>
     </row>
@@ -25399,7 +25740,7 @@
         <v>44</v>
       </c>
       <c r="M646" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>83.641838644838927</v>
       </c>
     </row>
@@ -25436,7 +25777,7 @@
         <v>-73</v>
       </c>
       <c r="M647" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>-74.647007279874387</v>
       </c>
     </row>
@@ -25476,7 +25817,7 @@
         <v>1445</v>
       </c>
       <c r="M648" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1341.8555243818957</v>
       </c>
     </row>
@@ -25513,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="M649" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -25550,7 +25891,7 @@
         <v>0</v>
       </c>
       <c r="M650" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -25587,7 +25928,7 @@
         <v>0</v>
       </c>
       <c r="M651" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -25624,7 +25965,7 @@
         <v>0</v>
       </c>
       <c r="M652" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -25661,7 +26002,7 @@
         <v>0</v>
       </c>
       <c r="M653" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -25698,7 +26039,7 @@
         <v>0</v>
       </c>
       <c r="M654" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -25735,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="M655" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -25772,7 +26113,7 @@
         <v>0</v>
       </c>
       <c r="M656" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -25809,7 +26150,7 @@
         <v>0</v>
       </c>
       <c r="M657" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -25846,7 +26187,7 @@
         <v>0</v>
       </c>
       <c r="M658" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -25883,7 +26224,7 @@
         <v>30</v>
       </c>
       <c r="M659" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>116.77199832364583</v>
       </c>
     </row>
@@ -25920,7 +26261,7 @@
         <v>28</v>
       </c>
       <c r="M660" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>114.43430902341927</v>
       </c>
     </row>
@@ -25957,7 +26298,7 @@
         <v>2</v>
       </c>
       <c r="M661" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2.1845733914836551</v>
       </c>
     </row>
@@ -25994,7 +26335,7 @@
         <v>84</v>
       </c>
       <c r="M662" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>76.851736911154958</v>
       </c>
     </row>
@@ -26031,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="M663" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -26068,7 +26409,7 @@
         <v>0</v>
       </c>
       <c r="M664" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -26105,7 +26446,7 @@
         <v>84</v>
       </c>
       <c r="M665" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>76.851736911154958</v>
       </c>
     </row>
@@ -26142,7 +26483,7 @@
         <v>0</v>
       </c>
       <c r="M666" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -26179,7 +26520,7 @@
         <v>1272</v>
       </c>
       <c r="M667" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1100.9436981733863</v>
       </c>
     </row>
@@ -26216,7 +26557,7 @@
         <v>0</v>
       </c>
       <c r="M668" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.60768690348733934</v>
       </c>
     </row>
@@ -26253,7 +26594,7 @@
         <v>0</v>
       </c>
       <c r="M669" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -26290,7 +26631,7 @@
         <v>1272</v>
       </c>
       <c r="M670" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1099.8895938160317</v>
       </c>
     </row>
@@ -26327,7 +26668,7 @@
         <v>41</v>
       </c>
       <c r="M671" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>9.7405634387206295</v>
       </c>
     </row>
@@ -26364,7 +26705,7 @@
         <v>18</v>
       </c>
       <c r="M672" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>37.547527534988141</v>
       </c>
     </row>
@@ -26401,7 +26742,7 @@
         <v>0</v>
       </c>
       <c r="M673" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -26438,7 +26779,7 @@
         <v>18</v>
       </c>
       <c r="M674" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>37.547527534988141</v>
       </c>
     </row>
@@ -26475,7 +26816,7 @@
         <v>45</v>
       </c>
       <c r="M675" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>32.867144484194576</v>
       </c>
     </row>
@@ -26515,7 +26856,7 @@
         <v>1278</v>
       </c>
       <c r="M676" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1298.3905954280697</v>
       </c>
     </row>
@@ -26552,7 +26893,7 @@
         <v>0</v>
       </c>
       <c r="M677" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -26589,7 +26930,7 @@
         <v>0</v>
       </c>
       <c r="M678" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -26626,7 +26967,7 @@
         <v>0</v>
       </c>
       <c r="M679" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -26663,7 +27004,7 @@
         <v>16</v>
       </c>
       <c r="M680" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>15.808079016535073</v>
       </c>
     </row>
@@ -26700,7 +27041,7 @@
         <v>0</v>
       </c>
       <c r="M681" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -26737,7 +27078,7 @@
         <v>0</v>
       </c>
       <c r="M682" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -26774,7 +27115,7 @@
         <v>16</v>
       </c>
       <c r="M683" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>15.808079016535073</v>
       </c>
     </row>
@@ -26811,7 +27152,7 @@
         <v>816</v>
       </c>
       <c r="M684" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>859.51346806524418</v>
       </c>
     </row>
@@ -26848,7 +27189,7 @@
         <v>30</v>
       </c>
       <c r="M685" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>33.72269331788948</v>
       </c>
     </row>
@@ -26885,7 +27226,7 @@
         <v>786</v>
       </c>
       <c r="M686" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>826.22398146353441</v>
       </c>
     </row>
@@ -26922,7 +27263,7 @@
         <v>264</v>
       </c>
       <c r="M687" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>246.58151437193936</v>
       </c>
     </row>
@@ -26959,7 +27300,7 @@
         <v>33</v>
       </c>
       <c r="M688" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>21.785763247614192</v>
       </c>
     </row>
@@ -26996,7 +27337,7 @@
         <v>231</v>
       </c>
       <c r="M689" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>224.4992043492598</v>
       </c>
     </row>
@@ -27033,7 +27374,7 @@
         <v>0</v>
       </c>
       <c r="M690" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -27070,7 +27411,7 @@
         <v>0</v>
       </c>
       <c r="M691" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -27107,7 +27448,7 @@
         <v>0</v>
       </c>
       <c r="M692" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -27144,7 +27485,7 @@
         <v>0</v>
       </c>
       <c r="M693" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -27181,7 +27522,7 @@
         <v>0</v>
       </c>
       <c r="M694" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -27218,7 +27559,7 @@
         <v>0</v>
       </c>
       <c r="M695" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -27255,7 +27596,7 @@
         <v>0</v>
       </c>
       <c r="M696" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -27292,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="M697" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -27329,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="M698" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -27366,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="M699" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -27403,7 +27744,7 @@
         <v>182</v>
       </c>
       <c r="M700" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>176.35439972850398</v>
       </c>
     </row>
@@ -27440,7 +27781,7 @@
         <v>40</v>
       </c>
       <c r="M701" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>26.573066019078514</v>
       </c>
     </row>
@@ -27477,7 +27818,7 @@
         <v>141</v>
       </c>
       <c r="M702" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>149.49300086101115</v>
       </c>
     </row>
@@ -27514,7 +27855,7 @@
         <v>-216</v>
       </c>
       <c r="M703" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>-165.98390200171826</v>
       </c>
     </row>
@@ -27554,7 +27895,7 @@
         <v>2745</v>
       </c>
       <c r="M704" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2790.3293527162978</v>
       </c>
     </row>
@@ -27591,7 +27932,7 @@
         <v>0</v>
       </c>
       <c r="M705" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -27628,7 +27969,7 @@
         <v>0</v>
       </c>
       <c r="M706" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -27665,7 +28006,7 @@
         <v>0</v>
       </c>
       <c r="M707" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -27702,7 +28043,7 @@
         <v>0</v>
       </c>
       <c r="M708" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -27739,7 +28080,7 @@
         <v>0</v>
       </c>
       <c r="M709" s="7">
-        <f t="shared" ref="M709:M772" si="12">AVERAGE(F709:L709)</f>
+        <f t="shared" ref="M709:M772" si="17">AVERAGE(F709:L709)</f>
         <v>0</v>
       </c>
     </row>
@@ -27776,7 +28117,7 @@
         <v>0</v>
       </c>
       <c r="M710" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -27813,7 +28154,7 @@
         <v>0</v>
       </c>
       <c r="M711" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -27850,7 +28191,7 @@
         <v>2</v>
       </c>
       <c r="M712" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>4.171635441924006</v>
       </c>
     </row>
@@ -27887,7 +28228,7 @@
         <v>0</v>
       </c>
       <c r="M713" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -27924,7 +28265,7 @@
         <v>2</v>
       </c>
       <c r="M714" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>4.171635441924006</v>
       </c>
     </row>
@@ -27961,7 +28302,7 @@
         <v>2395</v>
       </c>
       <c r="M715" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>2503.0587595414881</v>
       </c>
     </row>
@@ -27998,7 +28339,7 @@
         <v>73</v>
       </c>
       <c r="M716" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>107.80028776805828</v>
       </c>
     </row>
@@ -28035,7 +28376,7 @@
         <v>2322</v>
       </c>
       <c r="M717" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>2395.2584717734303</v>
       </c>
     </row>
@@ -28072,7 +28413,7 @@
         <v>0</v>
       </c>
       <c r="M718" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -28109,7 +28450,7 @@
         <v>0</v>
       </c>
       <c r="M719" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -28146,7 +28487,7 @@
         <v>0</v>
       </c>
       <c r="M720" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -28183,7 +28524,7 @@
         <v>0</v>
       </c>
       <c r="M721" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -28220,7 +28561,7 @@
         <v>0</v>
       </c>
       <c r="M722" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -28257,7 +28598,7 @@
         <v>0</v>
       </c>
       <c r="M723" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -28294,7 +28635,7 @@
         <v>0</v>
       </c>
       <c r="M724" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -28331,7 +28672,7 @@
         <v>0</v>
       </c>
       <c r="M725" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -28368,7 +28709,7 @@
         <v>0</v>
       </c>
       <c r="M726" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -28405,7 +28746,7 @@
         <v>4</v>
       </c>
       <c r="M727" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>5.1680027118646574</v>
       </c>
     </row>
@@ -28442,7 +28783,7 @@
         <v>343</v>
       </c>
       <c r="M728" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>277.63293713018618</v>
       </c>
     </row>
@@ -28479,7 +28820,7 @@
         <v>6</v>
       </c>
       <c r="M729" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>5.4361837090567153</v>
       </c>
     </row>
@@ -28516,7 +28857,7 @@
         <v>336</v>
       </c>
       <c r="M730" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>272.0538962782723</v>
       </c>
     </row>
@@ -28553,7 +28894,7 @@
         <v>3290</v>
       </c>
       <c r="M731" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>2335.9232184648049</v>
       </c>
     </row>
@@ -28593,7 +28934,7 @@
         <v>37</v>
       </c>
       <c r="M732" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>38.272563240045201</v>
       </c>
     </row>
@@ -28630,7 +28971,7 @@
         <v>0</v>
       </c>
       <c r="M733" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -28667,7 +29008,7 @@
         <v>0</v>
       </c>
       <c r="M734" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -28704,7 +29045,7 @@
         <v>0</v>
       </c>
       <c r="M735" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -28741,7 +29082,7 @@
         <v>0</v>
       </c>
       <c r="M736" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -28778,7 +29119,7 @@
         <v>0</v>
       </c>
       <c r="M737" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -28815,7 +29156,7 @@
         <v>0</v>
       </c>
       <c r="M738" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -28852,7 +29193,7 @@
         <v>0</v>
       </c>
       <c r="M739" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -28889,7 +29230,7 @@
         <v>0</v>
       </c>
       <c r="M740" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -28926,7 +29267,7 @@
         <v>0</v>
       </c>
       <c r="M741" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -28963,7 +29304,7 @@
         <v>0</v>
       </c>
       <c r="M742" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -29000,7 +29341,7 @@
         <v>16</v>
       </c>
       <c r="M743" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>18.169345485251423</v>
       </c>
     </row>
@@ -29037,7 +29378,7 @@
         <v>1</v>
       </c>
       <c r="M744" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1.793580745609632</v>
       </c>
     </row>
@@ -29074,7 +29415,7 @@
         <v>15</v>
       </c>
       <c r="M745" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>16.220603991664134</v>
       </c>
     </row>
@@ -29111,7 +29452,7 @@
         <v>0</v>
       </c>
       <c r="M746" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -29148,7 +29489,7 @@
         <v>0</v>
       </c>
       <c r="M747" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -29185,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="M748" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -29222,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="M749" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -29259,7 +29600,7 @@
         <v>0</v>
       </c>
       <c r="M750" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -29296,7 +29637,7 @@
         <v>0</v>
       </c>
       <c r="M751" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -29333,7 +29674,7 @@
         <v>0</v>
       </c>
       <c r="M752" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -29370,7 +29711,7 @@
         <v>0</v>
       </c>
       <c r="M753" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -29407,7 +29748,7 @@
         <v>0</v>
       </c>
       <c r="M754" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -29444,7 +29785,7 @@
         <v>0</v>
       </c>
       <c r="M755" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.2889065718796045</v>
       </c>
     </row>
@@ -29481,7 +29822,7 @@
         <v>21</v>
       </c>
       <c r="M756" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>20.112033519236554</v>
       </c>
     </row>
@@ -29518,7 +29859,7 @@
         <v>4</v>
       </c>
       <c r="M757" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>4.4418503908468621</v>
       </c>
     </row>
@@ -29555,7 +29896,7 @@
         <v>16</v>
       </c>
       <c r="M758" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>15.527325985532547</v>
       </c>
     </row>
@@ -29592,7 +29933,7 @@
         <v>63</v>
       </c>
       <c r="M759" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>73.165227699112236</v>
       </c>
     </row>
@@ -29632,7 +29973,7 @@
         <v>6378</v>
       </c>
       <c r="M760" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>5664.699893637573</v>
       </c>
     </row>
@@ -29669,7 +30010,7 @@
         <v>14</v>
       </c>
       <c r="M761" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>13.294134267588403</v>
       </c>
     </row>
@@ -29706,7 +30047,7 @@
         <v>0</v>
       </c>
       <c r="M762" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -29743,7 +30084,7 @@
         <v>14</v>
       </c>
       <c r="M763" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>13.294134267588403</v>
       </c>
     </row>
@@ -29780,7 +30121,7 @@
         <v>643</v>
       </c>
       <c r="M764" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>712.65504209909238</v>
       </c>
     </row>
@@ -29817,7 +30158,7 @@
         <v>1</v>
       </c>
       <c r="M765" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1.034786067157033</v>
       </c>
     </row>
@@ -29854,7 +30195,7 @@
         <v>444</v>
       </c>
       <c r="M766" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>300.14534612206455</v>
       </c>
     </row>
@@ -29891,7 +30232,7 @@
         <v>198</v>
       </c>
       <c r="M767" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>411.9336321179909</v>
       </c>
     </row>
@@ -29928,7 +30269,7 @@
         <v>1546</v>
       </c>
       <c r="M768" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1412.1612379562741</v>
       </c>
     </row>
@@ -29965,7 +30306,7 @@
         <v>70</v>
       </c>
       <c r="M769" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>150.28750493312418</v>
       </c>
     </row>
@@ -30002,7 +30343,7 @@
         <v>1476</v>
       </c>
       <c r="M770" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1261.8746023011277</v>
       </c>
     </row>
@@ -30039,7 +30380,7 @@
         <v>974</v>
       </c>
       <c r="M771" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>956.43763726867837</v>
       </c>
     </row>
@@ -30076,7 +30417,7 @@
         <v>509</v>
       </c>
       <c r="M772" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>570.66442440924459</v>
       </c>
     </row>
@@ -30113,7 +30454,7 @@
         <v>465</v>
       </c>
       <c r="M773" s="7">
-        <f t="shared" ref="M773:M787" si="13">AVERAGE(F773:L773)</f>
+        <f t="shared" ref="M773:M787" si="18">AVERAGE(F773:L773)</f>
         <v>385.63243841040082</v>
       </c>
     </row>
@@ -30150,7 +30491,7 @@
         <v>2725</v>
       </c>
       <c r="M774" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>2001.5793509494397</v>
       </c>
     </row>
@@ -30187,7 +30528,7 @@
         <v>968</v>
       </c>
       <c r="M775" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>698.09886981920295</v>
       </c>
     </row>
@@ -30224,7 +30565,7 @@
         <v>1371</v>
       </c>
       <c r="M776" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>1078.8062829457847</v>
       </c>
     </row>
@@ -30261,7 +30602,7 @@
         <v>117</v>
       </c>
       <c r="M777" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>39.526312127834977</v>
       </c>
     </row>
@@ -30298,7 +30639,7 @@
         <v>269</v>
       </c>
       <c r="M778" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>185.28599014830692</v>
       </c>
     </row>
@@ -30335,7 +30676,7 @@
         <v>0</v>
       </c>
       <c r="M779" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.8693275495719488</v>
       </c>
     </row>
@@ -30372,7 +30713,7 @@
         <v>0</v>
       </c>
       <c r="M780" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.8693275495719488</v>
       </c>
     </row>
@@ -30409,7 +30750,7 @@
         <v>0</v>
       </c>
       <c r="M781" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -30446,7 +30787,7 @@
         <v>0</v>
       </c>
       <c r="M782" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -30483,7 +30824,7 @@
         <v>468</v>
       </c>
       <c r="M783" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>503.193316524294</v>
       </c>
     </row>
@@ -30520,7 +30861,7 @@
         <v>7</v>
       </c>
       <c r="M784" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>64.350290152279044</v>
       </c>
     </row>
@@ -30557,7 +30898,7 @@
         <v>68</v>
       </c>
       <c r="M785" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>55.072169951351107</v>
       </c>
     </row>
@@ -30594,7 +30935,7 @@
         <v>-60</v>
       </c>
       <c r="M786" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>9.4209773437850775</v>
       </c>
     </row>
@@ -30631,7 +30972,7 @@
         <v>-697</v>
       </c>
       <c r="M787" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-516.28060362033159</v>
       </c>
     </row>
@@ -51518,26 +51859,26 @@
   <sheetData>
     <row r="1" spans="1:10" ht="16.8" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>77</v>
@@ -51551,7 +51892,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="4">
         <v>627.50900000000001</v>
@@ -51577,7 +51918,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="4">
         <v>482.41399999999999</v>
@@ -51595,7 +51936,7 @@
         <v>647.01599999999996</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H5" s="4">
         <v>632.35599999999999</v>
@@ -51603,7 +51944,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="4">
         <v>143.994</v>
@@ -51621,7 +51962,7 @@
         <v>60.195999999999998</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H6" s="4">
         <v>16.87</v>
@@ -51629,7 +51970,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" s="4">
         <v>82.587000000000003</v>
@@ -51647,7 +51988,7 @@
         <v>118.43300000000001</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H7" s="4">
         <v>104.483</v>
@@ -51655,7 +51996,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" s="4">
         <v>80.462000000000003</v>
@@ -51673,7 +52014,7 @@
         <v>106.05200000000001</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H8" s="4">
         <v>61.173000000000002</v>
@@ -51681,7 +52022,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B9" s="4">
         <v>464.46</v>
@@ -51699,7 +52040,7 @@
         <v>519.21699999999998</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H9" s="4">
         <v>516.69299999999998</v>
@@ -51707,12 +52048,12 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14">
         <f>(B7+B6/5)*100/'Infl corrected'!F2</f>
@@ -51745,7 +52086,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B15">
         <f>B4*100/'Infl corrected'!F2-B14</f>
@@ -51796,7 +52137,7 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -51815,7 +52156,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C5">
         <v>478</v>
@@ -51824,12 +52165,12 @@
         <v>1131</v>
       </c>
       <c r="E5" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C6">
         <v>435</v>
@@ -51848,7 +52189,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C7">
         <v>431</v>
@@ -51867,7 +52208,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C8">
         <v>412</v>
@@ -51886,7 +52227,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C9">
         <v>406</v>
@@ -51905,7 +52246,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C10">
         <v>400</v>
@@ -51924,7 +52265,7 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C11">
         <v>401</v>
@@ -51943,7 +52284,7 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C12">
         <v>396</v>
@@ -51962,7 +52303,7 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C13">
         <v>389</v>
@@ -51981,7 +52322,7 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C14">
         <v>368</v>
@@ -52000,7 +52341,7 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C15">
         <v>367</v>
@@ -52019,7 +52360,7 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C16">
         <v>361</v>
@@ -52038,7 +52379,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C17">
         <v>361</v>
